--- a/data/hotels_by_city/Houston/Houston_shard_84.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_84.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="364">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g1009393-d106378-Reviews-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Clarion-Suites-Near-The-Woodlands.h151425.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,996 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r580014725-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>106378</t>
+  </si>
+  <si>
+    <t>580014725</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>No free waffles here.</t>
+  </si>
+  <si>
+    <t>Website says there is a restaurant and a bar.They are talking about the breakfast bar.No restaurant or actual bar.Also, the commercials say free waffles. No free waffles here.  The breakfast bar is an extra $8 + tax.My second night, I got back to the room, someone had stripped all the linen and comforter off the bed, and not returned them.  The night desk clerk pulled some out of another room, and came and made the bed.  He said something about a broken dryer.As other reviewers have stated, the entrance is under construction, and difficult to find, and if you miss it, you have to drive miles to get back around to the I 45 frontage road to give it another try.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Website says there is a restaurant and a bar.They are talking about the breakfast bar.No restaurant or actual bar.Also, the commercials say free waffles. No free waffles here.  The breakfast bar is an extra $8 + tax.My second night, I got back to the room, someone had stripped all the linen and comforter off the bed, and not returned them.  The night desk clerk pulled some out of another room, and came and made the bed.  He said something about a broken dryer.As other reviewers have stated, the entrance is under construction, and difficult to find, and if you miss it, you have to drive miles to get back around to the I 45 frontage road to give it another try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r577068300-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>577068300</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Why is this place so horrible???</t>
+  </si>
+  <si>
+    <t>I should have listened to all the reviews but the rooms in The Woodlands were dwindling quickly, because of the Erik Church concert Friday night and the Iron Man contest Saturday. On check in, the 2 numb-sculls working couldn't find our reservation from our last name, so i had to get our confirmation number and then they found it. After waiting in two separate lines because the hotel was sold out that night. The rooom was just ok, there was trash left from the previous tenant but at least the bed was comfortable. The breakfast is $8, NOT FREE, which it should be! What a joke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r576634285-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>576634285</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>Upon arriving at the hotel, we had to wait because the front door was locked. The front desk clerk came running over as he had decided to go get supper. Breakfast is $8 per person which wasn’t disclosed during check in. No worries as Denny’s in within walking distance. We get checked in, and as we are headed up stairs, another employee is yelling at the maid to hurry and clean the rooms because people were waiting to be checked in and their room wasn’t cleaned. (This was around 5:00 p.m.) In the bathroom, we were provided 2 towels. We went down and asked for more but were told they did not have anymore clean. We decided that half of us could wait to shower in the morning, but when we went down in the morning, they still had not finished laundry.  Having our room cleaned or obtaining clean towels and washcloths was a difficult task all trip long. 
+There is a big sign that says no pets, but the room next to us had a very cute, but very voisterous daschund. One night the manager and the pet owner had a loud conversation about no pets in the hotel, but it was still there two days later. 
+The last night made our decision to never come back. We came back to the room that night and discovered that the toilet had backed up, even though it seemed fine that...Upon arriving at the hotel, we had to wait because the front door was locked. The front desk clerk came running over as he had decided to go get supper. Breakfast is $8 per person which wasn’t disclosed during check in. No worries as Denny’s in within walking distance. We get checked in, and as we are headed up stairs, another employee is yelling at the maid to hurry and clean the rooms because people were waiting to be checked in and their room wasn’t cleaned. (This was around 5:00 p.m.) In the bathroom, we were provided 2 towels. We went down and asked for more but were told they did not have anymore clean. We decided that half of us could wait to shower in the morning, but when we went down in the morning, they still had not finished laundry.  Having our room cleaned or obtaining clean towels and washcloths was a difficult task all trip long. There is a big sign that says no pets, but the room next to us had a very cute, but very voisterous daschund. One night the manager and the pet owner had a loud conversation about no pets in the hotel, but it was still there two days later. The last night made our decision to never come back. We came back to the room that night and discovered that the toilet had backed up, even though it seemed fine that morning. We rang the front desk and asked for assistance. He brought up a plunger and dropped at my feet. I asked if he expected us to do it (not that I couldn’t but knew that it was an issue with the toilet system) he said “I don’t have a maintenance guy on staff, so any repairs will be done by the guests.”  What?!?!?!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Upon arriving at the hotel, we had to wait because the front door was locked. The front desk clerk came running over as he had decided to go get supper. Breakfast is $8 per person which wasn’t disclosed during check in. No worries as Denny’s in within walking distance. We get checked in, and as we are headed up stairs, another employee is yelling at the maid to hurry and clean the rooms because people were waiting to be checked in and their room wasn’t cleaned. (This was around 5:00 p.m.) In the bathroom, we were provided 2 towels. We went down and asked for more but were told they did not have anymore clean. We decided that half of us could wait to shower in the morning, but when we went down in the morning, they still had not finished laundry.  Having our room cleaned or obtaining clean towels and washcloths was a difficult task all trip long. 
+There is a big sign that says no pets, but the room next to us had a very cute, but very voisterous daschund. One night the manager and the pet owner had a loud conversation about no pets in the hotel, but it was still there two days later. 
+The last night made our decision to never come back. We came back to the room that night and discovered that the toilet had backed up, even though it seemed fine that...Upon arriving at the hotel, we had to wait because the front door was locked. The front desk clerk came running over as he had decided to go get supper. Breakfast is $8 per person which wasn’t disclosed during check in. No worries as Denny’s in within walking distance. We get checked in, and as we are headed up stairs, another employee is yelling at the maid to hurry and clean the rooms because people were waiting to be checked in and their room wasn’t cleaned. (This was around 5:00 p.m.) In the bathroom, we were provided 2 towels. We went down and asked for more but were told they did not have anymore clean. We decided that half of us could wait to shower in the morning, but when we went down in the morning, they still had not finished laundry.  Having our room cleaned or obtaining clean towels and washcloths was a difficult task all trip long. There is a big sign that says no pets, but the room next to us had a very cute, but very voisterous daschund. One night the manager and the pet owner had a loud conversation about no pets in the hotel, but it was still there two days later. The last night made our decision to never come back. We came back to the room that night and discovered that the toilet had backed up, even though it seemed fine that morning. We rang the front desk and asked for assistance. He brought up a plunger and dropped at my feet. I asked if he expected us to do it (not that I couldn’t but knew that it was an issue with the toilet system) he said “I don’t have a maintenance guy on staff, so any repairs will be done by the guests.”  What?!?!?!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r452805882-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>452805882</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Reconsider!</t>
+  </si>
+  <si>
+    <t>This hotel franchise is not as nice a property as other Choice Hotels properties I have visited. Also, it is a Clarion Suites, not Comfort Suites. Management has not invested in the hotel's décor or exterior to give it a fresh energetic vibe. Do not be fooled by the hotel's online photos. The décor is not welcoming or pleasant compared to other Choice Hotels properties. Overall, the hotel had a gloomy feel. The hallways and rooms could use new carpet and fresh paint. The property is located behind a restaurant, so you have to pay close attention to prevent passing the entrance.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r406862623-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>406862623</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice accommodations.  Stayed for 2 weeks on business and was pleased with the comfort of the room and the friendliness of the staff.  Wish I could have enjoyed the area more as there are several shopping squares &amp; a mall in close proximity.  Red Lobster is the next parking lot over so you can walk.  Would definitely stay here again &amp; recommend it.  </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r376162449-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>376162449</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Place was filthy. First room had mold on curtain, toothpaste splatter around mirror, and nasty marks on bed cover. Was then moved to a single room which I needed 2 queens. Then put in another room and the tv didn't work. The halls were extremely hot as there was only a unit a/c on each end of the hall which did not help.  I called guest relations, they reviewed the photos and heard my complaint and said that they were giving me all my points back that I had used to reserve the room. The assistant general manager called me and said he could only give me a free night stay if I come back and stay again but would not give me back my points.  Richard front desk clerk was very nice.Do not stay MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Place was filthy. First room had mold on curtain, toothpaste splatter around mirror, and nasty marks on bed cover. Was then moved to a single room which I needed 2 queens. Then put in another room and the tv didn't work. The halls were extremely hot as there was only a unit a/c on each end of the hall which did not help.  I called guest relations, they reviewed the photos and heard my complaint and said that they were giving me all my points back that I had used to reserve the room. The assistant general manager called me and said he could only give me a free night stay if I come back and stay again but would not give me back my points.  Richard front desk clerk was very nice.Do not stay More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r295130642-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>295130642</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a clean hotel that had friendly staff at the desk and in housekeeping. It is in a Convient location. It has a pool that is on the small size, and has no shade. Good WiFi. Light breakfast provided. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r271000402-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>271000402</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Awful management and customer service</t>
+  </si>
+  <si>
+    <t>I stayed here for one night in October 2014 (yes, it's been a while) and I was charged for a "no-show" night on my credit card once I already had returned home. At no point was I given a "no-show" receipt or bill--- not upon my arrival at the front desk or when I checked out (when they slipped my bill underneath the door). This was clearly an error on the part of the hotel. 
+The reservation was made over the phone because it was a special rate for the wedding block and I was given a confirmation number, but denied a confirmation email (she said they didn't do emails, but I could get a number.) What good is a number if you record the reservation incorrectly?
+I called immediately once the charge had posted to my credit card to have the charge removed and the manager said she would call me back. When she did, she said her records showed I booked on a Wednesday (she later said her "records" showed me staying three nights, so I was lucky to be only charged for one "no-show" night). 
+Let me be clear, I am an attorney and triple-checked my reservation over the phone. I already booked my plane ticket for one night (Saturday), etc. I made plans in writing with a friend and she was notified immediately in writing when I made the reservation and I confirmed the day again....I stayed here for one night in October 2014 (yes, it's been a while) and I was charged for a "no-show" night on my credit card once I already had returned home. At no point was I given a "no-show" receipt or bill--- not upon my arrival at the front desk or when I checked out (when they slipped my bill underneath the door). This was clearly an error on the part of the hotel. The reservation was made over the phone because it was a special rate for the wedding block and I was given a confirmation number, but denied a confirmation email (she said they didn't do emails, but I could get a number.) What good is a number if you record the reservation incorrectly?I called immediately once the charge had posted to my credit card to have the charge removed and the manager said she would call me back. When she did, she said her records showed I booked on a Wednesday (she later said her "records" showed me staying three nights, so I was lucky to be only charged for one "no-show" night). Let me be clear, I am an attorney and triple-checked my reservation over the phone. I already booked my plane ticket for one night (Saturday), etc. I made plans in writing with a friend and she was notified immediately in writing when I made the reservation and I confirmed the day again. Further, my reservation was under a wedding block. Again, impossible to be confused for another Wednesday in October. Additionally, this "no-show" error happened to other wedding guests (the front desk clerk said at least five others in the wedding block) and they all received a refund immediately.When I asked the manager if she could investigate my claim with the front desk clerk or the lady who took my reservation she immediately and defensively replied that both individuals did not work there anymore (this was not but a few days or a week after I stayed.)Now, the management does not return my calls or emails. In fact, the manager does not even accept my calls any more.This hotel literally stole from me and the manager seems to think this is an OK practice. I will not go away and I would like to warn others to check their credit card statements if you stay here. This is a locally owned hotel and there is no reprieve from Choice Hotels International (or so they have told me twice.)Til this day, this charge looms over this wedding--- even the bride asks about it constantly and my answer is the same--- "They will not return my calls."It took me this long to take to social media as a way to feel heard--- think about spending your money somewhere else as opposed to giving it willingly to thieves.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for one night in October 2014 (yes, it's been a while) and I was charged for a "no-show" night on my credit card once I already had returned home. At no point was I given a "no-show" receipt or bill--- not upon my arrival at the front desk or when I checked out (when they slipped my bill underneath the door). This was clearly an error on the part of the hotel. 
+The reservation was made over the phone because it was a special rate for the wedding block and I was given a confirmation number, but denied a confirmation email (she said they didn't do emails, but I could get a number.) What good is a number if you record the reservation incorrectly?
+I called immediately once the charge had posted to my credit card to have the charge removed and the manager said she would call me back. When she did, she said her records showed I booked on a Wednesday (she later said her "records" showed me staying three nights, so I was lucky to be only charged for one "no-show" night). 
+Let me be clear, I am an attorney and triple-checked my reservation over the phone. I already booked my plane ticket for one night (Saturday), etc. I made plans in writing with a friend and she was notified immediately in writing when I made the reservation and I confirmed the day again....I stayed here for one night in October 2014 (yes, it's been a while) and I was charged for a "no-show" night on my credit card once I already had returned home. At no point was I given a "no-show" receipt or bill--- not upon my arrival at the front desk or when I checked out (when they slipped my bill underneath the door). This was clearly an error on the part of the hotel. The reservation was made over the phone because it was a special rate for the wedding block and I was given a confirmation number, but denied a confirmation email (she said they didn't do emails, but I could get a number.) What good is a number if you record the reservation incorrectly?I called immediately once the charge had posted to my credit card to have the charge removed and the manager said she would call me back. When she did, she said her records showed I booked on a Wednesday (she later said her "records" showed me staying three nights, so I was lucky to be only charged for one "no-show" night). Let me be clear, I am an attorney and triple-checked my reservation over the phone. I already booked my plane ticket for one night (Saturday), etc. I made plans in writing with a friend and she was notified immediately in writing when I made the reservation and I confirmed the day again. Further, my reservation was under a wedding block. Again, impossible to be confused for another Wednesday in October. Additionally, this "no-show" error happened to other wedding guests (the front desk clerk said at least five others in the wedding block) and they all received a refund immediately.When I asked the manager if she could investigate my claim with the front desk clerk or the lady who took my reservation she immediately and defensively replied that both individuals did not work there anymore (this was not but a few days or a week after I stayed.)Now, the management does not return my calls or emails. In fact, the manager does not even accept my calls any more.This hotel literally stole from me and the manager seems to think this is an OK practice. I will not go away and I would like to warn others to check their credit card statements if you stay here. This is a locally owned hotel and there is no reprieve from Choice Hotels International (or so they have told me twice.)Til this day, this charge looms over this wedding--- even the bride asks about it constantly and my answer is the same--- "They will not return my calls."It took me this long to take to social media as a way to feel heard--- think about spending your money somewhere else as opposed to giving it willingly to thieves.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r269799789-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>269799789</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Hotel room needs an upgrade, great staff</t>
+  </si>
+  <si>
+    <t>Good value.  Staff were great.  Wi-fi was very, very slow.  Breakfast was typical hotel food.  Right on interstate yet road construction in area made it tough to get around.  Room was quiet, bed was comfy.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r235430354-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>235430354</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Oct review</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay at the Comfort Suites Near The Wodlands.  The hotel is clean, the staff is friendly and it is located in an area with everything you need with a reasonable rate. I would highly recommend this location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r232134960-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>232134960</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>I would have given this Hotel a 4 if the Internet would have been better.  I called the front desk when I could not connect.  He then gave me the password.  Why he didn't give it to me at check in I have no idea.  Then I still couldn't connect.  I had to Tether my iPad in order to get useful internet.  The wireless signal for the Hotel kept going in and out.  I have seen other complaints about the same thing.  You would think they would have fixed it by now.  The lobby is beautiful, but don't be fooled.  The rest of the hotel is not as nice.  Rooms were Ok.  I had a Two Queen Non-Smoking room.  Fridge worked, Never used the microwave, Beds were comfortable, Water was Hot, nice roomy desk to work from, AC worked.  All in all it would have been a much better experience if the Internet would have been reliable.  Do you get that Brandon?????  Fix the internet.  It would also be nice if there were more outlets on the night stands to charge phones.  I had to unplug the Alarm Clock in order to charge my cell phone at the bed.  I use my cell phone as an alarm clock and want it by the bed.  I also noticed a cushion on a couch in the lobby was torn and stuffing was falling out of it.  You have a good start Brandon,...I would have given this Hotel a 4 if the Internet would have been better.  I called the front desk when I could not connect.  He then gave me the password.  Why he didn't give it to me at check in I have no idea.  Then I still couldn't connect.  I had to Tether my iPad in order to get useful internet.  The wireless signal for the Hotel kept going in and out.  I have seen other complaints about the same thing.  You would think they would have fixed it by now.  The lobby is beautiful, but don't be fooled.  The rest of the hotel is not as nice.  Rooms were Ok.  I had a Two Queen Non-Smoking room.  Fridge worked, Never used the microwave, Beds were comfortable, Water was Hot, nice roomy desk to work from, AC worked.  All in all it would have been a much better experience if the Internet would have been reliable.  Do you get that Brandon?????  Fix the internet.  It would also be nice if there were more outlets on the night stands to charge phones.  I had to unplug the Alarm Clock in order to charge my cell phone at the bed.  I use my cell phone as an alarm clock and want it by the bed.  I also noticed a cushion on a couch in the lobby was torn and stuffing was falling out of it.  You have a good start Brandon, but you still have a ways to go.  I am a Diamond member and for the price will not stay here again.  I will find another Choice Hotel or stay at the Hampton.  For the price difference I the Hampton has you beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon20131, Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>I would have given this Hotel a 4 if the Internet would have been better.  I called the front desk when I could not connect.  He then gave me the password.  Why he didn't give it to me at check in I have no idea.  Then I still couldn't connect.  I had to Tether my iPad in order to get useful internet.  The wireless signal for the Hotel kept going in and out.  I have seen other complaints about the same thing.  You would think they would have fixed it by now.  The lobby is beautiful, but don't be fooled.  The rest of the hotel is not as nice.  Rooms were Ok.  I had a Two Queen Non-Smoking room.  Fridge worked, Never used the microwave, Beds were comfortable, Water was Hot, nice roomy desk to work from, AC worked.  All in all it would have been a much better experience if the Internet would have been reliable.  Do you get that Brandon?????  Fix the internet.  It would also be nice if there were more outlets on the night stands to charge phones.  I had to unplug the Alarm Clock in order to charge my cell phone at the bed.  I use my cell phone as an alarm clock and want it by the bed.  I also noticed a cushion on a couch in the lobby was torn and stuffing was falling out of it.  You have a good start Brandon,...I would have given this Hotel a 4 if the Internet would have been better.  I called the front desk when I could not connect.  He then gave me the password.  Why he didn't give it to me at check in I have no idea.  Then I still couldn't connect.  I had to Tether my iPad in order to get useful internet.  The wireless signal for the Hotel kept going in and out.  I have seen other complaints about the same thing.  You would think they would have fixed it by now.  The lobby is beautiful, but don't be fooled.  The rest of the hotel is not as nice.  Rooms were Ok.  I had a Two Queen Non-Smoking room.  Fridge worked, Never used the microwave, Beds were comfortable, Water was Hot, nice roomy desk to work from, AC worked.  All in all it would have been a much better experience if the Internet would have been reliable.  Do you get that Brandon?????  Fix the internet.  It would also be nice if there were more outlets on the night stands to charge phones.  I had to unplug the Alarm Clock in order to charge my cell phone at the bed.  I use my cell phone as an alarm clock and want it by the bed.  I also noticed a cushion on a couch in the lobby was torn and stuffing was falling out of it.  You have a good start Brandon, but you still have a ways to go.  I am a Diamond member and for the price will not stay here again.  I will find another Choice Hotel or stay at the Hampton.  For the price difference I the Hampton has you beat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r225300990-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>225300990</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>It doesn’t matter how beautiful a property is it really just comes down to customer service.</t>
+  </si>
+  <si>
+    <t>This past weekend (Aug. 22 –Aug. 24) I took a quick trip to Huntsville to drop off my sister at the university. I decided to stay in Shenandoah since it’s only a 45 minute drive from the university.  I have absolutely nothing bad to say about the establishment; it was clean and simply a beautiful place. I had great service form all the staff but the issue was at check out. A woman of Indian ethnicity was there Sunday morning, I don’t know if she was part of the staff or the owner and I could care less. She was extremely rude and disrespectful to my father. My father who is of Mexican decent and just too nice to people who don’t deserve it, was ostracized by this woman. I was there with a special discount. When my father decided to go turn in the keys and thank the staff for the great services this woman not only questioned his identity, but also in a very accusing and threatening matter told him if he didn't prove who he was he would have to pay up the discount. I don’t know what kind of inferiority issues this woman has, or brought over but that’s not how we treat people here in Texas or America for that matter. Never in my life had I or any of my family experienced that sort of racism. Obviously if there was no issue at check...This past weekend (Aug. 22 –Aug. 24) I took a quick trip to Huntsville to drop off my sister at the university. I decided to stay in Shenandoah since it’s only a 45 minute drive from the university.  I have absolutely nothing bad to say about the establishment; it was clean and simply a beautiful place. I had great service form all the staff but the issue was at check out. A woman of Indian ethnicity was there Sunday morning, I don’t know if she was part of the staff or the owner and I could care less. She was extremely rude and disrespectful to my father. My father who is of Mexican decent and just too nice to people who don’t deserve it, was ostracized by this woman. I was there with a special discount. When my father decided to go turn in the keys and thank the staff for the great services this woman not only questioned his identity, but also in a very accusing and threatening matter told him if he didn't prove who he was he would have to pay up the discount. I don’t know what kind of inferiority issues this woman has, or brought over but that’s not how we treat people here in Texas or America for that matter. Never in my life had I or any of my family experienced that sort of racism. Obviously if there was no issue at check in, why would there be at check out other than ignorant people trying diminish others. If this woman is the owner she doesn't deserve to hold the brand. She can’t provide the simplest of services that go with the name of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This past weekend (Aug. 22 –Aug. 24) I took a quick trip to Huntsville to drop off my sister at the university. I decided to stay in Shenandoah since it’s only a 45 minute drive from the university.  I have absolutely nothing bad to say about the establishment; it was clean and simply a beautiful place. I had great service form all the staff but the issue was at check out. A woman of Indian ethnicity was there Sunday morning, I don’t know if she was part of the staff or the owner and I could care less. She was extremely rude and disrespectful to my father. My father who is of Mexican decent and just too nice to people who don’t deserve it, was ostracized by this woman. I was there with a special discount. When my father decided to go turn in the keys and thank the staff for the great services this woman not only questioned his identity, but also in a very accusing and threatening matter told him if he didn't prove who he was he would have to pay up the discount. I don’t know what kind of inferiority issues this woman has, or brought over but that’s not how we treat people here in Texas or America for that matter. Never in my life had I or any of my family experienced that sort of racism. Obviously if there was no issue at check...This past weekend (Aug. 22 –Aug. 24) I took a quick trip to Huntsville to drop off my sister at the university. I decided to stay in Shenandoah since it’s only a 45 minute drive from the university.  I have absolutely nothing bad to say about the establishment; it was clean and simply a beautiful place. I had great service form all the staff but the issue was at check out. A woman of Indian ethnicity was there Sunday morning, I don’t know if she was part of the staff or the owner and I could care less. She was extremely rude and disrespectful to my father. My father who is of Mexican decent and just too nice to people who don’t deserve it, was ostracized by this woman. I was there with a special discount. When my father decided to go turn in the keys and thank the staff for the great services this woman not only questioned his identity, but also in a very accusing and threatening matter told him if he didn't prove who he was he would have to pay up the discount. I don’t know what kind of inferiority issues this woman has, or brought over but that’s not how we treat people here in Texas or America for that matter. Never in my life had I or any of my family experienced that sort of racism. Obviously if there was no issue at check in, why would there be at check out other than ignorant people trying diminish others. If this woman is the owner she doesn't deserve to hold the brand. She can’t provide the simplest of services that go with the name of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r191832671-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>191832671</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>Last Resort</t>
+  </si>
+  <si>
+    <t>I would stay in this faciltiy only as a last resort which , unfortunatley was my situation this week.  
+DAY 1
+Entered the hotel to a major sewage smell in the front lobby.  Intiially the staff disregarded my comments however I persisted an they came clean that they were workign to fix it.
+Went to my room where I found toilet ttissue in the toilet - proceedd to flush it away and returned to find the toilet had overflowed and flooded the bathroom - apparently confriming there was a major issue with the sanitary sewer on tht property.
+Following an unsuccessful quick check on Orbits for an alternate property in the immeidate area I proceeded back to the  front desk and shared the bathroom issues before heading to a dinner meeting.
+On my return the manager greeted me and showed me to my new room.  While turning back the bed found the comforter was heavily stained but all else looked accepable.
+DAY 2
+Returned at 9:30pm following a full day of meetings and dinner to a room that hadnt received housekeeping service - at this point I threw up my arms and turned in for the night assuming the kind lady that had switched rooms for me the night befre had failed to make housekeeping aware of the situation - WRONG!!!!  11:30PM - YES 11:30PM House knock on the door and wants to clean my room.  Sorry guys - I...I would stay in this faciltiy only as a last resort which , unfortunatley was my situation this week.  DAY 1Entered the hotel to a major sewage smell in the front lobby.  Intiially the staff disregarded my comments however I persisted an they came clean that they were workign to fix it.Went to my room where I found toilet ttissue in the toilet - proceedd to flush it away and returned to find the toilet had overflowed and flooded the bathroom - apparently confriming there was a major issue with the sanitary sewer on tht property.Following an unsuccessful quick check on Orbits for an alternate property in the immeidate area I proceeded back to the  front desk and shared the bathroom issues before heading to a dinner meeting.On my return the manager greeted me and showed me to my new room.  While turning back the bed found the comforter was heavily stained but all else looked accepable.DAY 2Returned at 9:30pm following a full day of meetings and dinner to a room that hadnt received housekeeping service - at this point I threw up my arms and turned in for the night assuming the kind lady that had switched rooms for me the night befre had failed to make housekeeping aware of the situation - WRONG!!!!  11:30PM - YES 11:30PM House knock on the door and wants to clean my room.  Sorry guys - I was out of patience at this time.  waited until 8:00am the following morning and let the front desk have it with both barrels.There is a serious issue with the owneship of this property and the failure to manage the facility to acceptable standards - the front desk people were accomodatign and as helpful as they could be - the owner needs to get his/her priorities in order.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Brandon20131, Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded January 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2014</t>
+  </si>
+  <si>
+    <t>I would stay in this faciltiy only as a last resort which , unfortunatley was my situation this week.  
+DAY 1
+Entered the hotel to a major sewage smell in the front lobby.  Intiially the staff disregarded my comments however I persisted an they came clean that they were workign to fix it.
+Went to my room where I found toilet ttissue in the toilet - proceedd to flush it away and returned to find the toilet had overflowed and flooded the bathroom - apparently confriming there was a major issue with the sanitary sewer on tht property.
+Following an unsuccessful quick check on Orbits for an alternate property in the immeidate area I proceeded back to the  front desk and shared the bathroom issues before heading to a dinner meeting.
+On my return the manager greeted me and showed me to my new room.  While turning back the bed found the comforter was heavily stained but all else looked accepable.
+DAY 2
+Returned at 9:30pm following a full day of meetings and dinner to a room that hadnt received housekeeping service - at this point I threw up my arms and turned in for the night assuming the kind lady that had switched rooms for me the night befre had failed to make housekeeping aware of the situation - WRONG!!!!  11:30PM - YES 11:30PM House knock on the door and wants to clean my room.  Sorry guys - I...I would stay in this faciltiy only as a last resort which , unfortunatley was my situation this week.  DAY 1Entered the hotel to a major sewage smell in the front lobby.  Intiially the staff disregarded my comments however I persisted an they came clean that they were workign to fix it.Went to my room where I found toilet ttissue in the toilet - proceedd to flush it away and returned to find the toilet had overflowed and flooded the bathroom - apparently confriming there was a major issue with the sanitary sewer on tht property.Following an unsuccessful quick check on Orbits for an alternate property in the immeidate area I proceeded back to the  front desk and shared the bathroom issues before heading to a dinner meeting.On my return the manager greeted me and showed me to my new room.  While turning back the bed found the comforter was heavily stained but all else looked accepable.DAY 2Returned at 9:30pm following a full day of meetings and dinner to a room that hadnt received housekeeping service - at this point I threw up my arms and turned in for the night assuming the kind lady that had switched rooms for me the night befre had failed to make housekeeping aware of the situation - WRONG!!!!  11:30PM - YES 11:30PM House knock on the door and wants to clean my room.  Sorry guys - I was out of patience at this time.  waited until 8:00am the following morning and let the front desk have it with both barrels.There is a serious issue with the owneship of this property and the failure to manage the facility to acceptable standards - the front desk people were accomodatign and as helpful as they could be - the owner needs to get his/her priorities in order.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r186384324-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>186384324</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>Our stay was for four nights while in the Woodlands area for holiday and family reunion.  The staff was exceptionally helpful and wanting/willing to please.  Although the price is a little higher than we had hoped for, it is comparable to the area (we usually try and stay as inexpensive as possible).  Breakfast each morning was typical "motel" fair, but adequate. This will definitely be our hotel stay when we are in the area!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r183101815-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>183101815</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>What this hotel lacks in updates they make up for in heart. I stayed there for two nights on business. The staff was very attentive and went out of their way to ensure my stay was perfect. I would definitely stay here again even if the hotel is older and not as plush as other hotels.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r172026181-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>172026181</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>No Comfort Here</t>
+  </si>
+  <si>
+    <t>We have stayed at several Comfort Suites before and NEVER had a problem. There's a first time for everything though. We called and made a telephone reservation and checked in that night. Upon arrival, we noticed a trail of ants that started somewhere in the brick entrance area that went past the front door and around the corner. This trail wasn't just a few ants...it was several colonies of thousands. Brought it to the attention of the front desk clerk who said the exterminators had just recently been there but she would notify maintenance to take care of it. This was not so much a big deal to us as they appeared to be on the outside of the building. We opened the door to our room and the heat just about knocked us down. Yes, the heat. We were on the third floor and top floors are usually hotter than any others and we noticed that the hallway had been very hot as well but the heat inside our room was almost intolerable. When hotel rooms are not kept cool in the summer time they smell funny. Not a good funny either. Even after turning on the air conditioner it was in the wee hours before the room cooled off. If we had been smart we would have checked out,  demanded a refund and went to a different hotel. There are lots of choices in the area! We found...We have stayed at several Comfort Suites before and NEVER had a problem. There's a first time for everything though. We called and made a telephone reservation and checked in that night. Upon arrival, we noticed a trail of ants that started somewhere in the brick entrance area that went past the front door and around the corner. This trail wasn't just a few ants...it was several colonies of thousands. Brought it to the attention of the front desk clerk who said the exterminators had just recently been there but she would notify maintenance to take care of it. This was not so much a big deal to us as they appeared to be on the outside of the building. We opened the door to our room and the heat just about knocked us down. Yes, the heat. We were on the third floor and top floors are usually hotter than any others and we noticed that the hallway had been very hot as well but the heat inside our room was almost intolerable. When hotel rooms are not kept cool in the summer time they smell funny. Not a good funny either. Even after turning on the air conditioner it was in the wee hours before the room cooled off. If we had been smart we would have checked out,  demanded a refund and went to a different hotel. There are lots of choices in the area! We found a gecko in our room...yes, a gecko, not a lizard, and after capturing him to take outside for a safe release we fond another one in the stairwell on second floor. There were what appeared to be possum tracks imprinted in the concrete in the stairwell as well. You could tell that some of the stairs had been smoothed over with concrete and repainted but there were many that had animal prints in them. Overall, it was probably the WORST experience for us EVER at any hotel. In Texas during the summer months hotel rooms need to be kept cool. Maybe not COLD but COOL would have been better than the sweltering heat we encountered. This hotel is marked off our list of favorites and has forced us to re-write our bucket list. Yep, we have officially stayed at the worst hotel ever! And was charged over $100.00 to do so!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at several Comfort Suites before and NEVER had a problem. There's a first time for everything though. We called and made a telephone reservation and checked in that night. Upon arrival, we noticed a trail of ants that started somewhere in the brick entrance area that went past the front door and around the corner. This trail wasn't just a few ants...it was several colonies of thousands. Brought it to the attention of the front desk clerk who said the exterminators had just recently been there but she would notify maintenance to take care of it. This was not so much a big deal to us as they appeared to be on the outside of the building. We opened the door to our room and the heat just about knocked us down. Yes, the heat. We were on the third floor and top floors are usually hotter than any others and we noticed that the hallway had been very hot as well but the heat inside our room was almost intolerable. When hotel rooms are not kept cool in the summer time they smell funny. Not a good funny either. Even after turning on the air conditioner it was in the wee hours before the room cooled off. If we had been smart we would have checked out,  demanded a refund and went to a different hotel. There are lots of choices in the area! We found...We have stayed at several Comfort Suites before and NEVER had a problem. There's a first time for everything though. We called and made a telephone reservation and checked in that night. Upon arrival, we noticed a trail of ants that started somewhere in the brick entrance area that went past the front door and around the corner. This trail wasn't just a few ants...it was several colonies of thousands. Brought it to the attention of the front desk clerk who said the exterminators had just recently been there but she would notify maintenance to take care of it. This was not so much a big deal to us as they appeared to be on the outside of the building. We opened the door to our room and the heat just about knocked us down. Yes, the heat. We were on the third floor and top floors are usually hotter than any others and we noticed that the hallway had been very hot as well but the heat inside our room was almost intolerable. When hotel rooms are not kept cool in the summer time they smell funny. Not a good funny either. Even after turning on the air conditioner it was in the wee hours before the room cooled off. If we had been smart we would have checked out,  demanded a refund and went to a different hotel. There are lots of choices in the area! We found a gecko in our room...yes, a gecko, not a lizard, and after capturing him to take outside for a safe release we fond another one in the stairwell on second floor. There were what appeared to be possum tracks imprinted in the concrete in the stairwell as well. You could tell that some of the stairs had been smoothed over with concrete and repainted but there were many that had animal prints in them. Overall, it was probably the WORST experience for us EVER at any hotel. In Texas during the summer months hotel rooms need to be kept cool. Maybe not COLD but COOL would have been better than the sweltering heat we encountered. This hotel is marked off our list of favorites and has forced us to re-write our bucket list. Yep, we have officially stayed at the worst hotel ever! And was charged over $100.00 to do so!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r167863090-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>167863090</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>We are on vacation, we didn't have reservations and decided to stop in Houston. We were calling around and a lot of places were booked. We pulled in here and asked about a room - so glad we did!  Friendly staff, clean comfortable room. I recommend this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r167039304-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>167039304</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>WONDERFUL EXPERIENCE!</t>
+  </si>
+  <si>
+    <t>Greeted and checked in by the General Manager, Jeff M. VERY personable and extremely helpful. I booked a room with a whirlpool tub and, prior to arrival, was apprehensive about the cleanliness I would find. As it turns out, I was worried for nothing!  The bathroom and especially the whirlpool tub was SPOTLESS! The room was also very clean and comfortable. The room was quiet, despite being right outside the freeway! I will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r160751034-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>160751034</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, poor Internet</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on a business trip. The room was fine. Lobby was nice. Other areas looked a bit run down. The staff were very nice and helpful! The big ding for this hotel is the Internet. Being here on business, I had to do a couple of Internet dependent webinars from 5:30-7:30. The Internet connectivity made this extremely challenging. If a hotel is going to advertise Internet availability, it should be able to deliver on that claim.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on a business trip. The room was fine. Lobby was nice. Other areas looked a bit run down. The staff were very nice and helpful! The big ding for this hotel is the Internet. Being here on business, I had to do a couple of Internet dependent webinars from 5:30-7:30. The Internet connectivity made this extremely challenging. If a hotel is going to advertise Internet availability, it should be able to deliver on that claim.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r158857166-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>158857166</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>Very accomodating staff, but not impressive</t>
+  </si>
+  <si>
+    <t>I want to first start by saying the staff at this hotel was very friendly and accomodating. They were very helpful, but I would not stay here again. This hotel needs an update. The rooms were not clean, and I did not enjoy my stay. I did have a problem in my room with the cleanliness, and was moved to a much nicer room. I appreciated the room change, and the staff was extreamely helpful with this, but the new room was still not very nice/clean. The internet also did not work while I was there, and as I was traveling for business, this was an inconvenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>I want to first start by saying the staff at this hotel was very friendly and accomodating. They were very helpful, but I would not stay here again. This hotel needs an update. The rooms were not clean, and I did not enjoy my stay. I did have a problem in my room with the cleanliness, and was moved to a much nicer room. I appreciated the room change, and the staff was extreamely helpful with this, but the new room was still not very nice/clean. The internet also did not work while I was there, and as I was traveling for business, this was an inconvenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r157919162-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>157919162</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Great hotel or basketball team</t>
+  </si>
+  <si>
+    <t>i would recommend this hotel. We had a basketball team staying here. it was perfect. The staff was great, the rooms were clean, the breakfast was good and the location was excellent. The rate was reasonable. The on-site laundry was a plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded April 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2013</t>
+  </si>
+  <si>
+    <t>i would recommend this hotel. We had a basketball team staying here. it was perfect. The staff was great, the rooms were clean, the breakfast was good and the location was excellent. The rate was reasonable. The on-site laundry was a plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r155250164-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>155250164</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Very pleasant</t>
+  </si>
+  <si>
+    <t>Everyone was so nice and the breakfast was great .i would recommend to all that vist the north Houston area. The rooms were clean and up to date. The pool is nice and well keep I would come again to Shenandoah area and stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Everyone was so nice and the breakfast was great .i would recommend to all that vist the north Houston area. The rooms were clean and up to date. The pool is nice and well keep I would come again to Shenandoah area and stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r155249229-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>155249229</t>
+  </si>
+  <si>
+    <t>Trip to national d III swimming</t>
+  </si>
+  <si>
+    <t>We are staying at the comfort suites in Shenandoah hotel, it is a very clean hotel great location close to everything. Just around the corner from the pool. Hotel staff is extremely professional and friendly front desk staff is always ready and available to help with any questions.  If you are coming to Shenandoah I would not stay any where else.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We are staying at the comfort suites in Shenandoah hotel, it is a very clean hotel great location close to everything. Just around the corner from the pool. Hotel staff is extremely professional and friendly front desk staff is always ready and available to help with any questions.  If you are coming to Shenandoah I would not stay any where else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r154769210-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>154769210</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>The special service and help of Brandon Rumsgield</t>
+  </si>
+  <si>
+    <t>We,The Martinsens, are planning a trip to Virginia and back the last of May to June 6 and neded reservations for the hotels on our trip.  George knew the hotels he needed reservations for but was finding very difficult to make them himself due to the foriegn accent of those getting the information for him.Brandon was very obliging in doing this for George.  He just sent us a list of comfirmed reservations.  We are very pleased at the service he and Jeff provided.  The Comfort Suites in Shenodoah near the Woodlands is our place to stay when we are in that area.our Blessings on Grace and all those who make our stay so pleasan and home like. We consider this hotel as our second homeNancy MMoreShow less</t>
+  </si>
+  <si>
+    <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2013</t>
+  </si>
+  <si>
+    <t>We,The Martinsens, are planning a trip to Virginia and back the last of May to June 6 and neded reservations for the hotels on our trip.  George knew the hotels he needed reservations for but was finding very difficult to make them himself due to the foriegn accent of those getting the information for him.Brandon was very obliging in doing this for George.  He just sent us a list of comfirmed reservations.  We are very pleased at the service he and Jeff provided.  The Comfort Suites in Shenodoah near the Woodlands is our place to stay when we are in that area.our Blessings on Grace and all those who make our stay so pleasan and home like. We consider this hotel as our second homeNancy MMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r152973870-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>152973870</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Comfort Suites, The Woodlands, TX</t>
+  </si>
+  <si>
+    <t>Television remote was dirty and broken.  This was immediately replaced by a working remote.  Two telephones in suite but they did not work.  When called to desk's attention twice they said they would fix it and contended that they had; but they were NOT fixed and I had to have a friend call me from out of town to my cell phone for my  4 AM wake up call for fear I would miss an early flight.  Length of stay was four nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Television remote was dirty and broken.  This was immediately replaced by a working remote.  Two telephones in suite but they did not work.  When called to desk's attention twice they said they would fix it and contended that they had; but they were NOT fixed and I had to have a friend call me from out of town to my cell phone for my  4 AM wake up call for fear I would miss an early flight.  Length of stay was four nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r148153862-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>148153862</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>Will always remember!</t>
+  </si>
+  <si>
+    <t>This stay has been by far one of the most memorable stays that i have. Each and everyone staff member that i had the pleasure to meet stood out by their wonderful customer service. Checking in Oscar upgraded me to a bigger suite. Checking out I was greeted by Paul and had the friendliest and quickest check out. During my stay they always had the shuttle available for me and that helped because i did not find another hotel that offered one. I come to the area often and i will be staying here from now on.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r147167171-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>147167171</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>Excellent Value, Clean, Accessible and Will Be Back!</t>
+  </si>
+  <si>
+    <t>Very rarely do I remember the front desk personnel, but Oscar gave exceptional service as well as honoring a great rate. The hotel is clean, the bed is comfortable and all the typical amenities are present. I'm also a sucker for the receipt under the door trick. The GM of the hotel sent me a personal thank you note and that is very rare in hospitality. NO, it was not an automated email. It was a personal note. I took the time to respond and I'm here now. They have a customer for life. Internet is fast. water hot. AC/Heat works great. Coffee is good in the morning, and breakfast is just enough to get you started. It's a difficult hotel market in North Houston. This place is reliable.  --happy traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Very rarely do I remember the front desk personnel, but Oscar gave exceptional service as well as honoring a great rate. The hotel is clean, the bed is comfortable and all the typical amenities are present. I'm also a sucker for the receipt under the door trick. The GM of the hotel sent me a personal thank you note and that is very rare in hospitality. NO, it was not an automated email. It was a personal note. I took the time to respond and I'm here now. They have a customer for life. Internet is fast. water hot. AC/Heat works great. Coffee is good in the morning, and breakfast is just enough to get you started. It's a difficult hotel market in North Houston. This place is reliable.  --happy traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r143468128-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>143468128</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Beware!!  Keep driving down the road to other hotel options.</t>
+  </si>
+  <si>
+    <t>We had an overnight stay in this old, poorly maintained property this weekend.  Our biggest concern of many, was that the deadbolt on our room did not work - did not feel safe.  Asked a night manager to move us but were unable due to hotel being full.   Apologized, but said there was nothing that could be done, and agreed it was not a safe situation.  Hotel management could have cared less that the room didn't lock and the complaint was handled in a most unprofessional manner the next morning.  My advice - steer clear of this run down property.  There are many other hotel options close by that would offer a much different experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>We had an overnight stay in this old, poorly maintained property this weekend.  Our biggest concern of many, was that the deadbolt on our room did not work - did not feel safe.  Asked a night manager to move us but were unable due to hotel being full.   Apologized, but said there was nothing that could be done, and agreed it was not a safe situation.  Hotel management could have cared less that the room didn't lock and the complaint was handled in a most unprofessional manner the next morning.  My advice - steer clear of this run down property.  There are many other hotel options close by that would offer a much different experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r137832962-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>137832962</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Needs a COMPLETE makeover!</t>
+  </si>
+  <si>
+    <t>My family and I stayed for a sport tournament recently.  
+Let me start with the postitives:  The hotel was near surrounding shopping, eating, and the tournament location.  The staff was friendly and welcoming.  
+The negatives:  When a guest enters the hotel the first thing that is seen is the lobby.  Unfortunately, this lobby needs a lot of work.  The furniture does not match the motif and feel of the hotel and nothing matches throughout the room. The room, with 2 queen beds and a pull out sofa was very dirty.  There was trim placed in the "closet" area (just lying in the corner), the floors were very dirty, the pull out sofa was filthy, the curtains had holes in the them, and there was some kind of "red substance" smeared all over the wall near the bed.  My daughter would not sleep near it and we all had to play musical beds! The maintence of the A/C needs to be looked at because it was constantly rattling...which didn't make for a good night's sleep.  I would even say that the sheets didn't look very clean as well.  I look for a hotel that is CLEAN and I have to say this was not the case.  It was disappointing to say the least for even a one night stay.  
+The management of this hotel serioulsy needs to look into remodeling these rooms and TRAIN their employees to deep clean and maintain...My family and I stayed for a sport tournament recently.  Let me start with the postitives:  The hotel was near surrounding shopping, eating, and the tournament location.  The staff was friendly and welcoming.  The negatives:  When a guest enters the hotel the first thing that is seen is the lobby.  Unfortunately, this lobby needs a lot of work.  The furniture does not match the motif and feel of the hotel and nothing matches throughout the room. The room, with 2 queen beds and a pull out sofa was very dirty.  There was trim placed in the "closet" area (just lying in the corner), the floors were very dirty, the pull out sofa was filthy, the curtains had holes in the them, and there was some kind of "red substance" smeared all over the wall near the bed.  My daughter would not sleep near it and we all had to play musical beds! The maintence of the A/C needs to be looked at because it was constantly rattling...which didn't make for a good night's sleep.  I would even say that the sheets didn't look very clean as well.  I look for a hotel that is CLEAN and I have to say this was not the case.  It was disappointing to say the least for even a one night stay.  The management of this hotel serioulsy needs to look into remodeling these rooms and TRAIN their employees to deep clean and maintain each room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My family and I stayed for a sport tournament recently.  
+Let me start with the postitives:  The hotel was near surrounding shopping, eating, and the tournament location.  The staff was friendly and welcoming.  
+The negatives:  When a guest enters the hotel the first thing that is seen is the lobby.  Unfortunately, this lobby needs a lot of work.  The furniture does not match the motif and feel of the hotel and nothing matches throughout the room. The room, with 2 queen beds and a pull out sofa was very dirty.  There was trim placed in the "closet" area (just lying in the corner), the floors were very dirty, the pull out sofa was filthy, the curtains had holes in the them, and there was some kind of "red substance" smeared all over the wall near the bed.  My daughter would not sleep near it and we all had to play musical beds! The maintence of the A/C needs to be looked at because it was constantly rattling...which didn't make for a good night's sleep.  I would even say that the sheets didn't look very clean as well.  I look for a hotel that is CLEAN and I have to say this was not the case.  It was disappointing to say the least for even a one night stay.  
+The management of this hotel serioulsy needs to look into remodeling these rooms and TRAIN their employees to deep clean and maintain...My family and I stayed for a sport tournament recently.  Let me start with the postitives:  The hotel was near surrounding shopping, eating, and the tournament location.  The staff was friendly and welcoming.  The negatives:  When a guest enters the hotel the first thing that is seen is the lobby.  Unfortunately, this lobby needs a lot of work.  The furniture does not match the motif and feel of the hotel and nothing matches throughout the room. The room, with 2 queen beds and a pull out sofa was very dirty.  There was trim placed in the "closet" area (just lying in the corner), the floors were very dirty, the pull out sofa was filthy, the curtains had holes in the them, and there was some kind of "red substance" smeared all over the wall near the bed.  My daughter would not sleep near it and we all had to play musical beds! The maintence of the A/C needs to be looked at because it was constantly rattling...which didn't make for a good night's sleep.  I would even say that the sheets didn't look very clean as well.  I look for a hotel that is CLEAN and I have to say this was not the case.  It was disappointing to say the least for even a one night stay.  The management of this hotel serioulsy needs to look into remodeling these rooms and TRAIN their employees to deep clean and maintain each room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r135206485-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>135206485</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Needs Better Management</t>
+  </si>
+  <si>
+    <t>We stayed in this property recently. There was no alarm clock in the room. The breakfast was below average for a Comfort Suites. I waited 10 minutes to check out at check out time, and had to ask a housecleaning lady to get someone to help me. None of these issues were major, but kept me from giving more stars. Othere than these problems, the hotel was OK. Nice room, nice beds, nice people, when you could find them. All in all, it was irritating, but not a great experience.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r127139806-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>127139806</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Dirty Room</t>
+  </si>
+  <si>
+    <t>I booked a room a month early for one night.  I was supposed to have a room with two queen beds.  When we got to the room, it had not been cleaned and the beds were a mess.  When I went back to the front desk, they informed me that they didn't have any other rooms with two queen.  They offered to put all 4 of us in a room with a king bed.  I asked them how much it would be considering that they didn't have the room that I booked a month ahead of time.  They told me that the best they could do was give me a 10% discount.  It was late and I didn't have much of a choice and we had already unloaded our car.  When my credit card was billed, the 10% dicount was nowhere to be seen, and they charged me the full amount.  I will never stay at this hotel again.  They had obviously tried to dress this place up, but it didn't work.  Everything from the carpet to the paint was very shotty.  We had two other families meeting us here and one of them got stuck in a room with a single king bed too.  They had also booked a room with two queen beds.  The other family was overcharged $50 for their room.  This place is a joke.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I booked a room a month early for one night.  I was supposed to have a room with two queen beds.  When we got to the room, it had not been cleaned and the beds were a mess.  When I went back to the front desk, they informed me that they didn't have any other rooms with two queen.  They offered to put all 4 of us in a room with a king bed.  I asked them how much it would be considering that they didn't have the room that I booked a month ahead of time.  They told me that the best they could do was give me a 10% discount.  It was late and I didn't have much of a choice and we had already unloaded our car.  When my credit card was billed, the 10% dicount was nowhere to be seen, and they charged me the full amount.  I will never stay at this hotel again.  They had obviously tried to dress this place up, but it didn't work.  Everything from the carpet to the paint was very shotty.  We had two other families meeting us here and one of them got stuck in a room with a single king bed too.  They had also booked a room with two queen beds.  The other family was overcharged $50 for their room.  This place is a joke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r122949903-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>122949903</t>
+  </si>
+  <si>
+    <t>01/11/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Nice hotel, cool design.. great breakfast, nice updated rooms. I had work in the woodlands and this hotel was in the perfect location! I recommend to any business travelers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r121299077-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>121299077</t>
+  </si>
+  <si>
+    <t>12/01/2011</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>I originally booked 2 rooms for 3 nights. I called the day before and added one day for one room. I called prior to my arrival due to being lost and asked for directions. I was on I-45 but could not locate them. The night clerk had not idea about the surrounding area and told me he could not help me. I found the hotel and checked in which took longer due to none of the computers operating correctly. I listened to the desk clerks entire story of his kidney stone surgery and how he was out of work for a week etc. I cancelled the 2 rooms for the three days and he wrote down my confirmation number. Upon waking up and getting ready to leave my 2 children were sleeping on the sofa bed and found a strange pair of mens underwear in the sheets and blankets. Upon checkout when I advised the desk clerk of this the response I received was "oh wow". Unprofessional and inexcusable. After my vacation I noticed my bank was charged $571.44 when my one night stay was only $129. I called and spoke with Jason the clerk who told me the second room was not cancelled. Their clerk made an error and now they want to charge me. Their error is now something I am having to fight to get corrected. Jason stated he would have the manager get back with me...I originally booked 2 rooms for 3 nights. I called the day before and added one day for one room. I called prior to my arrival due to being lost and asked for directions. I was on I-45 but could not locate them. The night clerk had not idea about the surrounding area and told me he could not help me. I found the hotel and checked in which took longer due to none of the computers operating correctly. I listened to the desk clerks entire story of his kidney stone surgery and how he was out of work for a week etc. I cancelled the 2 rooms for the three days and he wrote down my confirmation number. Upon waking up and getting ready to leave my 2 children were sleeping on the sofa bed and found a strange pair of mens underwear in the sheets and blankets. Upon checkout when I advised the desk clerk of this the response I received was "oh wow". Unprofessional and inexcusable. After my vacation I noticed my bank was charged $571.44 when my one night stay was only $129. I called and spoke with Jason the clerk who told me the second room was not cancelled. Their clerk made an error and now they want to charge me. Their error is now something I am having to fight to get corrected. Jason stated he would have the manager get back with me because she was out at that time. Its been 2 days....how unprofessional is that! I am currently looking for other resources or corporate affiliations I can take my problem to. They are over charging me for their employee error and have no courtesy to even call and discuss this. I would NEVER advise anyone to stay at this hotel and I am going to be sure to post on every site I can find to let them know. I am also writing to the Renissance board to advise them they may not want to be affilitated with this hotel in the future. Adding the complaints that I have already found that may not be a hard decision for them.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I originally booked 2 rooms for 3 nights. I called the day before and added one day for one room. I called prior to my arrival due to being lost and asked for directions. I was on I-45 but could not locate them. The night clerk had not idea about the surrounding area and told me he could not help me. I found the hotel and checked in which took longer due to none of the computers operating correctly. I listened to the desk clerks entire story of his kidney stone surgery and how he was out of work for a week etc. I cancelled the 2 rooms for the three days and he wrote down my confirmation number. Upon waking up and getting ready to leave my 2 children were sleeping on the sofa bed and found a strange pair of mens underwear in the sheets and blankets. Upon checkout when I advised the desk clerk of this the response I received was "oh wow". Unprofessional and inexcusable. After my vacation I noticed my bank was charged $571.44 when my one night stay was only $129. I called and spoke with Jason the clerk who told me the second room was not cancelled. Their clerk made an error and now they want to charge me. Their error is now something I am having to fight to get corrected. Jason stated he would have the manager get back with me...I originally booked 2 rooms for 3 nights. I called the day before and added one day for one room. I called prior to my arrival due to being lost and asked for directions. I was on I-45 but could not locate them. The night clerk had not idea about the surrounding area and told me he could not help me. I found the hotel and checked in which took longer due to none of the computers operating correctly. I listened to the desk clerks entire story of his kidney stone surgery and how he was out of work for a week etc. I cancelled the 2 rooms for the three days and he wrote down my confirmation number. Upon waking up and getting ready to leave my 2 children were sleeping on the sofa bed and found a strange pair of mens underwear in the sheets and blankets. Upon checkout when I advised the desk clerk of this the response I received was "oh wow". Unprofessional and inexcusable. After my vacation I noticed my bank was charged $571.44 when my one night stay was only $129. I called and spoke with Jason the clerk who told me the second room was not cancelled. Their clerk made an error and now they want to charge me. Their error is now something I am having to fight to get corrected. Jason stated he would have the manager get back with me because she was out at that time. Its been 2 days....how unprofessional is that! I am currently looking for other resources or corporate affiliations I can take my problem to. They are over charging me for their employee error and have no courtesy to even call and discuss this. I would NEVER advise anyone to stay at this hotel and I am going to be sure to post on every site I can find to let them know. I am also writing to the Renissance board to advise them they may not want to be affilitated with this hotel in the future. Adding the complaints that I have already found that may not be a hard decision for them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r118455332-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>118455332</t>
+  </si>
+  <si>
+    <t>09/22/2011</t>
+  </si>
+  <si>
+    <t>woodlands</t>
+  </si>
+  <si>
+    <t>we stayed at this hotel in order to avoid long commute from Pearland, TX.  Overall it's a clean hotel.  Not updated or modern looking..but it was clean.  It was very close to Market Street and provided the essentials.  nothing fancy but you don't pay the high prices either.staff was very friendly...the hotel just needs new carpet and fresh paint.  if you can overlook the aethetics then it's ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Grace J, Owner at Clarion Suites Near the Woodlands, responded to this reviewResponded November 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2011</t>
+  </si>
+  <si>
+    <t>we stayed at this hotel in order to avoid long commute from Pearland, TX.  Overall it's a clean hotel.  Not updated or modern looking..but it was clean.  It was very close to Market Street and provided the essentials.  nothing fancy but you don't pay the high prices either.staff was very friendly...the hotel just needs new carpet and fresh paint.  if you can overlook the aethetics then it's ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r118081001-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>118081001</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Nice place, a good clean bargain.</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 days during Ironman Texas. Every hotel in the area was full, and many of the Woodland hotels had jacked up prices to 200 to 300 per night. Ugh. I stayed here and was very happy. Close to everything, convienent parking, clean, nice pool. Rooms big, clean, quiet.  I have already made reservations for next year.  Big thumbs up. !MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 days during Ironman Texas. Every hotel in the area was full, and many of the Woodland hotels had jacked up prices to 200 to 300 per night. Ugh. I stayed here and was very happy. Close to everything, convienent parking, clean, nice pool. Rooms big, clean, quiet.  I have already made reservations for next year.  Big thumbs up. !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r116345419-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>116345419</t>
+  </si>
+  <si>
+    <t>08/06/2011</t>
+  </si>
+  <si>
+    <t>Came back with the family</t>
+  </si>
+  <si>
+    <t>Recently stayed with some associates on a business trip and it was a nice experience so I came back when we went on vacation with my family. Everything was great! Large comfortable room, pool perfect, breakfast.....all I can say is wow, and the people were the nicest and very professional. Great job guys! ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Recently stayed with some associates on a business trip and it was a nice experience so I came back when we went on vacation with my family. Everything was great! Large comfortable room, pool perfect, breakfast.....all I can say is wow, and the people were the nicest and very professional. Great job guys! ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r114272548-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>114272548</t>
+  </si>
+  <si>
+    <t>06/18/2011</t>
+  </si>
+  <si>
+    <t>Pool Sucks!</t>
+  </si>
+  <si>
+    <t>My sister and brother-in-law live with me and our parents and like to get away for a night once in a while. They told me they were going to stay the night at this hotel and I thought since it was in The Woodlands it would be great, so I asked to tag along for the evening so we could spend some time in the pool.When we pulled up I noticed how small the pool area was and thought, "oh well, it's big enough for us as long as nobody else comes down." Well, we hit the pool area and found the pool to be very dirty, especially the hot tub area which was dark green. Stuff was floating in the green water and the concrete surface of the pool was quite dirty. I looked at the photo of the pool area and you can actually see the dirty hot tub in their photo!So, our evening of pool fun was ruined but they decided to stay the night in the OK room despite it's slow-cooling A/C. Next time I'll check out the pool area before they book the room for a night away from our crowded home.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>My sister and brother-in-law live with me and our parents and like to get away for a night once in a while. They told me they were going to stay the night at this hotel and I thought since it was in The Woodlands it would be great, so I asked to tag along for the evening so we could spend some time in the pool.When we pulled up I noticed how small the pool area was and thought, "oh well, it's big enough for us as long as nobody else comes down." Well, we hit the pool area and found the pool to be very dirty, especially the hot tub area which was dark green. Stuff was floating in the green water and the concrete surface of the pool was quite dirty. I looked at the photo of the pool area and you can actually see the dirty hot tub in their photo!So, our evening of pool fun was ruined but they decided to stay the night in the OK room despite it's slow-cooling A/C. Next time I'll check out the pool area before they book the room for a night away from our crowded home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r106159643-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>106159643</t>
+  </si>
+  <si>
+    <t>04/29/2011</t>
+  </si>
+  <si>
+    <t>Everything was GREAT! Service, clean, and breakfast awesome!!</t>
+  </si>
+  <si>
+    <t>Our group of 20 or so stayed for 3 nights and it was just a great experience all around. Check in was smooth considering there were so many of us at one time. Staff was professional, friendly, and very accommodating. Rooms were obviously newly done and beds were very comfortable. The morning breakfast was hot, fresh, and very plentiful. I will definately stay at this location again!!! Thumbs up!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Our group of 20 or so stayed for 3 nights and it was just a great experience all around. Check in was smooth considering there were so many of us at one time. Staff was professional, friendly, and very accommodating. Rooms were obviously newly done and beds were very comfortable. The morning breakfast was hot, fresh, and very plentiful. I will definately stay at this location again!!! Thumbs up!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r86277230-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>86277230</t>
+  </si>
+  <si>
+    <t>11/07/2010</t>
+  </si>
+  <si>
+    <t>Extremely poor customer service</t>
+  </si>
+  <si>
+    <t>General manager, Grace, does not address your concerns, talks over you, does not care about customer service, stating "you are not our problem". Night receptionist, Josh, offered no help to stranded girls and  was laughing at out distress. Another hotel aided in our safe return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r61779500-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>61779500</t>
+  </si>
+  <si>
+    <t>04/17/2010</t>
+  </si>
+  <si>
+    <t>Older Hotel</t>
+  </si>
+  <si>
+    <t>My daughter and I  stayed one night at this hotel on our recent shopping trip.The hotel is older - the room we were in had broken tiles and the bathroom door looked pretty bad.  However, the room was clean - no complaints on housekeeping.  The internet service in that room did not work - they gave me another cable - it worked for about 10 minutes and then quit working.  This was disappointing.  Also, there was a charge for using the safe which we did not use so had them take that off - person at the desk said a lot of people get that charge.    Even though it is a minimal charge, you don't want to pay for something you didn't use.    There were not a lot of people in the hotel - they offered to switch us to another room when I mentioned the internet but this was at 9 p.m. and we were already settled.MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter and I  stayed one night at this hotel on our recent shopping trip.The hotel is older - the room we were in had broken tiles and the bathroom door looked pretty bad.  However, the room was clean - no complaints on housekeeping.  The internet service in that room did not work - they gave me another cable - it worked for about 10 minutes and then quit working.  This was disappointing.  Also, there was a charge for using the safe which we did not use so had them take that off - person at the desk said a lot of people get that charge.    Even though it is a minimal charge, you don't want to pay for something you didn't use.    There were not a lot of people in the hotel - they offered to switch us to another room when I mentioned the internet but this was at 9 p.m. and we were already settled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r35424325-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>35424325</t>
+  </si>
+  <si>
+    <t>07/21/2009</t>
+  </si>
+  <si>
+    <t>Memorable stay great value</t>
+  </si>
+  <si>
+    <t>I was impressed by the hospitality, the accomadations and the price. I have stayed at this property before, and I was planning another stay in this area, but decided to view some reviews first to see if the quality has changed. The reviews are not very accurate when describing the hotel nor the service. When I called the property to confirm information on their website, the front desk agent was glad to see that I was a returning guest and was willing to help me find a room tailored to my needs. That was key in my decision to select this hotel. I was impressed by her willingness to assist, she was super friendly and accomadating. Once arriving at the hotel I was greeted by another front desk agent who was also very friendly. Check in time took less then 60 seconds I swear it was awesome. My suite was huge, I had a king size corner jacuzzi suite and I was blown away at the value.If this was a 4 star hotel I would easily pay 3 times as much.I'll stay again and again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I was impressed by the hospitality, the accomadations and the price. I have stayed at this property before, and I was planning another stay in this area, but decided to view some reviews first to see if the quality has changed. The reviews are not very accurate when describing the hotel nor the service. When I called the property to confirm information on their website, the front desk agent was glad to see that I was a returning guest and was willing to help me find a room tailored to my needs. That was key in my decision to select this hotel. I was impressed by her willingness to assist, she was super friendly and accomadating. Once arriving at the hotel I was greeted by another front desk agent who was also very friendly. Check in time took less then 60 seconds I swear it was awesome. My suite was huge, I had a king size corner jacuzzi suite and I was blown away at the value.If this was a 4 star hotel I would easily pay 3 times as much.I'll stay again and again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r34407135-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>34407135</t>
+  </si>
+  <si>
+    <t>07/10/2009</t>
+  </si>
+  <si>
+    <t>Bug in the Bed!</t>
+  </si>
+  <si>
+    <t>When visiting Conroe, TX, we usually stay at the Comfort Inn on League Line Rd., however, this trip we opted to stay at the Comfort Suites near the Woodlands as we would be shopping in the area.  The lobby is very nice, the breakfast was a full breakfast rather than only continental style, but our room was not exceptionally clean.  I found a bug on the pillow, which made me leary so I stripped the whole bed and remade it to ensure there were no other bugs.  Also, the bathroom vanity is in the room with the shower as opposed to being outside in the dressing area, which poses a problem for two people trying to get ready at the same time.  This hotel is $10 more a night than the Comfort Inn at League Line Rd., so we will continue to stay there when in the Conroe area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>When visiting Conroe, TX, we usually stay at the Comfort Inn on League Line Rd., however, this trip we opted to stay at the Comfort Suites near the Woodlands as we would be shopping in the area.  The lobby is very nice, the breakfast was a full breakfast rather than only continental style, but our room was not exceptionally clean.  I found a bug on the pillow, which made me leary so I stripped the whole bed and remade it to ensure there were no other bugs.  Also, the bathroom vanity is in the room with the shower as opposed to being outside in the dressing area, which poses a problem for two people trying to get ready at the same time.  This hotel is $10 more a night than the Comfort Inn at League Line Rd., so we will continue to stay there when in the Conroe area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r28654580-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>28654580</t>
+  </si>
+  <si>
+    <t>04/23/2009</t>
+  </si>
+  <si>
+    <t>Excellent Hotel with GREAT Staff in a wonderful location</t>
+  </si>
+  <si>
+    <t>This hotel was amazing.  Great staff, great features, and at a great value.  The hotels in the area were about a hundred bucks more than Comfort Suites, so I made the decision initially for value.  However, it turned out to be much more than that. The internet was certainly high-speed.  I had some slow wireless internet, but the staff worked with me and fixed the problem.  I ended up using the hard-wire provided in the room and got really high-speed service.The staff was incredible!  Really friendly and really helpful, they directed me to several excellent restaurants in the area and even printed maps for me.  The head manager was extremely nice.It's in a great location too - right in The Woodlands.  One minute from the mall, market street, and great restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>This hotel was amazing.  Great staff, great features, and at a great value.  The hotels in the area were about a hundred bucks more than Comfort Suites, so I made the decision initially for value.  However, it turned out to be much more than that. The internet was certainly high-speed.  I had some slow wireless internet, but the staff worked with me and fixed the problem.  I ended up using the hard-wire provided in the room and got really high-speed service.The staff was incredible!  Really friendly and really helpful, they directed me to several excellent restaurants in the area and even printed maps for me.  The head manager was extremely nice.It's in a great location too - right in The Woodlands.  One minute from the mall, market street, and great restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r23965796-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>23965796</t>
+  </si>
+  <si>
+    <t>01/27/2009</t>
+  </si>
+  <si>
+    <t>Slow Internet and rude general manager</t>
+  </si>
+  <si>
+    <t>The hotel plasters the web with claims of: 'high speed internet'. This is a lie. The speed is between 11 to 22 mbps. That's 'b' technology. High speed is 'g' or 'n' technology, 'g' was released waay back in mid 2003.Instead of listening and putting me in touch with the person responsible for their false advertising, the General Manager talked over me and ignored my polite repeated requests. Unbelievable!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>comfort88, Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded January 28, 2009</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2009</t>
+  </si>
+  <si>
+    <t>The hotel plasters the web with claims of: 'high speed internet'. This is a lie. The speed is between 11 to 22 mbps. That's 'b' technology. High speed is 'g' or 'n' technology, 'g' was released waay back in mid 2003.Instead of listening and putting me in touch with the person responsible for their false advertising, the General Manager talked over me and ignored my polite repeated requests. Unbelievable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r15718881-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>15718881</t>
+  </si>
+  <si>
+    <t>05/06/2008</t>
+  </si>
+  <si>
+    <t>look elsewhere</t>
+  </si>
+  <si>
+    <t>The hotel staff is well-meaning and friendly. Room houskeeping is very good.Poor room lighting, mildew smells from the antiquated A/C units which are equally noisy,  patchwork repairs on hotel room fixtures make everything look worse;  dingy/gray towels and especially the sheets; dated and dented furniture, but new carpet in some rooms-although trim work not completed in 2 rooms (2-3rd floors). Parking lot and surrounding areas not well-maintained; Food is questionable; lots of highway noise. They either need to spend a lot of money and properly update this hotel or close it down because it is in need of an overhaul.High speed access and frig in rooms - nice features.Great staff! Management is fortunate to have them.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>comfort88, Public relation manager at Clarion Suites Near the Woodlands, responded to this reviewResponded May 29, 2008</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2008</t>
+  </si>
+  <si>
+    <t>The hotel staff is well-meaning and friendly. Room houskeeping is very good.Poor room lighting, mildew smells from the antiquated A/C units which are equally noisy,  patchwork repairs on hotel room fixtures make everything look worse;  dingy/gray towels and especially the sheets; dated and dented furniture, but new carpet in some rooms-although trim work not completed in 2 rooms (2-3rd floors). Parking lot and surrounding areas not well-maintained; Food is questionable; lots of highway noise. They either need to spend a lot of money and properly update this hotel or close it down because it is in need of an overhaul.High speed access and frig in rooms - nice features.Great staff! Management is fortunate to have them.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1531,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1563,3022 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>199</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>213</v>
+      </c>
+      <c r="X25" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" t="s">
+        <v>254</v>
+      </c>
+      <c r="K31" t="s">
+        <v>255</v>
+      </c>
+      <c r="L31" t="s">
+        <v>256</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>282</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>283</v>
+      </c>
+      <c r="X35" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" t="s">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s">
+        <v>290</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>291</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>283</v>
+      </c>
+      <c r="X36" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>283</v>
+      </c>
+      <c r="X37" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>301</v>
+      </c>
+      <c r="J38" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s">
+        <v>304</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>283</v>
+      </c>
+      <c r="X38" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>308</v>
+      </c>
+      <c r="J39" t="s">
+        <v>309</v>
+      </c>
+      <c r="K39" t="s">
+        <v>310</v>
+      </c>
+      <c r="L39" t="s">
+        <v>311</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>312</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>283</v>
+      </c>
+      <c r="X39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>339</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" t="s">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s">
+        <v>343</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>344</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>346</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K45" t="s">
+        <v>349</v>
+      </c>
+      <c r="L45" t="s">
+        <v>350</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>351</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>352</v>
+      </c>
+      <c r="X45" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>355</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" t="s">
+        <v>357</v>
+      </c>
+      <c r="K46" t="s">
+        <v>358</v>
+      </c>
+      <c r="L46" t="s">
+        <v>359</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>360</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X46" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_84.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_84.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r588545330-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>106378</t>
+  </si>
+  <si>
+    <t>588545330</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Wouldn't go back</t>
+  </si>
+  <si>
+    <t>We arrived just past dusk, not knowing they were set back a little from the I-45 access road. There was a sign, but not lit and we missed the drive way.  It took over 20 minutes thru the Houston traffic to go around and make the turn in.  We told them their sign was dark, but didn't seem to matter.  Then as my wife and I were settling in shortly before 9 p.m., 2 workmen showed up and said they needed to fix a stain on the bathroom ceiling.  As an elite rewards member, I'm used to having breakfast included with our stay, but learned breakfast was $8 a person.  And all I wanted was a bowl of cereal.  And finally they do not give reward points.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We arrived just past dusk, not knowing they were set back a little from the I-45 access road. There was a sign, but not lit and we missed the drive way.  It took over 20 minutes thru the Houston traffic to go around and make the turn in.  We told them their sign was dark, but didn't seem to matter.  Then as my wife and I were settling in shortly before 9 p.m., 2 workmen showed up and said they needed to fix a stain on the bathroom ceiling.  As an elite rewards member, I'm used to having breakfast included with our stay, but learned breakfast was $8 a person.  And all I wanted was a bowl of cereal.  And finally they do not give reward points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r583740831-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>583740831</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Comfy room</t>
+  </si>
+  <si>
+    <t>Comfy room and nice staff. It was close to the interstate 45 and not far from Houston. Their breakfast is not the best and a shock to find out that they want $8.00 for the chow. Next time we'll go to a restaurant.The room rate was not bad for what we got. Will stay here again if working in the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r580014725-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
-    <t>1009393</t>
-  </si>
-  <si>
-    <t>106378</t>
-  </si>
-  <si>
     <t>580014725</t>
   </si>
   <si>
@@ -177,9 +219,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Website says there is a restaurant and a bar.They are talking about the breakfast bar.No restaurant or actual bar.Also, the commercials say free waffles. No free waffles here.  The breakfast bar is an extra $8 + tax.My second night, I got back to the room, someone had stripped all the linen and comforter off the bed, and not returned them.  The night desk clerk pulled some out of another room, and came and made the bed.  He said something about a broken dryer.As other reviewers have stated, the entrance is under construction, and difficult to find, and if you miss it, you have to drive miles to get back around to the I 45 frontage road to give it another try.More</t>
   </si>
   <si>
@@ -196,9 +235,6 @@
   </si>
   <si>
     <t>I should have listened to all the reviews but the rooms in The Woodlands were dwindling quickly, because of the Erik Church concert Friday night and the Iron Man contest Saturday. On check in, the 2 numb-sculls working couldn't find our reservation from our last name, so i had to get our confirmation number and then they found it. After waiting in two separate lines because the hotel was sold out that night. The rooom was just ok, there was trash left from the previous tenant but at least the bed was comfortable. The breakfast is $8, NOT FREE, which it should be! What a joke</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r576634285-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
@@ -226,6 +262,48 @@
 The last night made our decision to never come back. We came back to the room that night and discovered that the toilet had backed up, even though it seemed fine that...Upon arriving at the hotel, we had to wait because the front door was locked. The front desk clerk came running over as he had decided to go get supper. Breakfast is $8 per person which wasn’t disclosed during check in. No worries as Denny’s in within walking distance. We get checked in, and as we are headed up stairs, another employee is yelling at the maid to hurry and clean the rooms because people were waiting to be checked in and their room wasn’t cleaned. (This was around 5:00 p.m.) In the bathroom, we were provided 2 towels. We went down and asked for more but were told they did not have anymore clean. We decided that half of us could wait to shower in the morning, but when we went down in the morning, they still had not finished laundry.  Having our room cleaned or obtaining clean towels and washcloths was a difficult task all trip long. There is a big sign that says no pets, but the room next to us had a very cute, but very voisterous daschund. One night the manager and the pet owner had a loud conversation about no pets in the hotel, but it was still there two days later. The last night made our decision to never come back. We came back to the room that night and discovered that the toilet had backed up, even though it seemed fine that morning. We rang the front desk and asked for assistance. He brought up a plunger and dropped at my feet. I asked if he expected us to do it (not that I couldn’t but knew that it was an issue with the toilet system) he said “I don’t have a maintenance guy on staff, so any repairs will be done by the guests.”  What?!?!?!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r493724055-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>493724055</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Do not stay, Property needs new management</t>
+  </si>
+  <si>
+    <t>Worst stay ever!!  Upon arrival and check in, we asked about a shuttle to the Cynthia Woods Pavilion as we were there for a concert.  We were told that the property did not have one. Going back out to our car, there was a car behind us unloading groceries. This person asked us if we could move our car, so we did and took a luggage carrier out into the parking lot. When we went to go back into the hotel, the doors had locked because the grocery cart had continually opened the automatic doors!!  I asked the women unloading who she was and was told she was the manager, Grace.????  So we went to the concert and upon return, there was a SHUTTLE BY THE DOOR????  Up in the room, there was a stain on the comforter, 3 large black marks.  I tried watching TV and it did not work,  Called down and Angel said she would be right up to look at it.  She was and fixed it.  But the next morning, it did not work again, called down but this time no one came, Josh told me it needed to be on channel 3.  During the night, we found out that the bathroom door squeaked very loudly.  So every time I got up in the night, the door woke my husband up.  We informed the front desk the next morning  Their solution was to move us to...Worst stay ever!!  Upon arrival and check in, we asked about a shuttle to the Cynthia Woods Pavilion as we were there for a concert.  We were told that the property did not have one. Going back out to our car, there was a car behind us unloading groceries. This person asked us if we could move our car, so we did and took a luggage carrier out into the parking lot. When we went to go back into the hotel, the doors had locked because the grocery cart had continually opened the automatic doors!!  I asked the women unloading who she was and was told she was the manager, Grace.????  So we went to the concert and upon return, there was a SHUTTLE BY THE DOOR????  Up in the room, there was a stain on the comforter, 3 large black marks.  I tried watching TV and it did not work,  Called down and Angel said she would be right up to look at it.  She was and fixed it.  But the next morning, it did not work again, called down but this time no one came, Josh told me it needed to be on channel 3.  During the night, we found out that the bathroom door squeaked very loudly.  So every time I got up in the night, the door woke my husband up.  We informed the front desk the next morning  Their solution was to move us to another room but we were on our way out.  I asked if they would move our stuff and they said no.  So I said, "just please fix the door before tonight" and was assured it would happen.  We were gone from the room until 3:00 PM and no repairs were done.  I asked Josh about this and his response was, and I quote. "Oh we have sprayed it with WD-40 before and it will last about a week and then starts squeaking again"  So wait, you KNEW there was a problem with this room and you still put us in it????  Front desk said they had called the maintenance man but he never came.  After the stay I spoke with Grace regarding all the issues we had.  She said the door had been fixed but that was a lie.  I asked to see a repair report and she got very upset stating she did not have to show me that. She offered me a 1 night complimentary stay but I never want to stay here again.  Grace and Josh need seriously management and customer relations training.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Worst stay ever!!  Upon arrival and check in, we asked about a shuttle to the Cynthia Woods Pavilion as we were there for a concert.  We were told that the property did not have one. Going back out to our car, there was a car behind us unloading groceries. This person asked us if we could move our car, so we did and took a luggage carrier out into the parking lot. When we went to go back into the hotel, the doors had locked because the grocery cart had continually opened the automatic doors!!  I asked the women unloading who she was and was told she was the manager, Grace.????  So we went to the concert and upon return, there was a SHUTTLE BY THE DOOR????  Up in the room, there was a stain on the comforter, 3 large black marks.  I tried watching TV and it did not work,  Called down and Angel said she would be right up to look at it.  She was and fixed it.  But the next morning, it did not work again, called down but this time no one came, Josh told me it needed to be on channel 3.  During the night, we found out that the bathroom door squeaked very loudly.  So every time I got up in the night, the door woke my husband up.  We informed the front desk the next morning  Their solution was to move us to...Worst stay ever!!  Upon arrival and check in, we asked about a shuttle to the Cynthia Woods Pavilion as we were there for a concert.  We were told that the property did not have one. Going back out to our car, there was a car behind us unloading groceries. This person asked us if we could move our car, so we did and took a luggage carrier out into the parking lot. When we went to go back into the hotel, the doors had locked because the grocery cart had continually opened the automatic doors!!  I asked the women unloading who she was and was told she was the manager, Grace.????  So we went to the concert and upon return, there was a SHUTTLE BY THE DOOR????  Up in the room, there was a stain on the comforter, 3 large black marks.  I tried watching TV and it did not work,  Called down and Angel said she would be right up to look at it.  She was and fixed it.  But the next morning, it did not work again, called down but this time no one came, Josh told me it needed to be on channel 3.  During the night, we found out that the bathroom door squeaked very loudly.  So every time I got up in the night, the door woke my husband up.  We informed the front desk the next morning  Their solution was to move us to another room but we were on our way out.  I asked if they would move our stuff and they said no.  So I said, "just please fix the door before tonight" and was assured it would happen.  We were gone from the room until 3:00 PM and no repairs were done.  I asked Josh about this and his response was, and I quote. "Oh we have sprayed it with WD-40 before and it will last about a week and then starts squeaking again"  So wait, you KNEW there was a problem with this room and you still put us in it????  Front desk said they had called the maintenance man but he never came.  After the stay I spoke with Grace regarding all the issues we had.  She said the door had been fixed but that was a lie.  I asked to see a repair report and she got very upset stating she did not have to show me that. She offered me a 1 night complimentary stay but I never want to stay here again.  Grace and Josh need seriously management and customer relations training.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r482995054-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>482995054</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>If you are lucky enough to find the entrance off the frontage road to this hotel turn around!!  Beyond the garish lobby the hotel was dirty and in disrepair.  There was significant amount of water running into our toilet tank continuously.  We notified the front desk in writing, in person and by phone and each time we were assured "maintenance was on it's way to fix the problem." We finally had to shut the water supply line off at the wall between uses.  That made using the toilet in the middle of the night difficult to say the least.  Housekeeping skipped our room the last day and when we asked for at least some clean towels the front desk person initially denied our request.  He finally said we could have some, but only if we came and got them.  The "free" breakfast was so bad we never ate there after the first day.  They also charge $1.50/day for the safe in your room whether or not you requested or use it.  There are plenty of other hotels up and down the road at which to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>If you are lucky enough to find the entrance off the frontage road to this hotel turn around!!  Beyond the garish lobby the hotel was dirty and in disrepair.  There was significant amount of water running into our toilet tank continuously.  We notified the front desk in writing, in person and by phone and each time we were assured "maintenance was on it's way to fix the problem." We finally had to shut the water supply line off at the wall between uses.  That made using the toilet in the middle of the night difficult to say the least.  Housekeeping skipped our room the last day and when we asked for at least some clean towels the front desk person initially denied our request.  He finally said we could have some, but only if we came and got them.  The "free" breakfast was so bad we never ate there after the first day.  They also charge $1.50/day for the safe in your room whether or not you requested or use it.  There are plenty of other hotels up and down the road at which to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r452805882-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -284,6 +362,42 @@
   </si>
   <si>
     <t>Place was filthy. First room had mold on curtain, toothpaste splatter around mirror, and nasty marks on bed cover. Was then moved to a single room which I needed 2 queens. Then put in another room and the tv didn't work. The halls were extremely hot as there was only a unit a/c on each end of the hall which did not help.  I called guest relations, they reviewed the photos and heard my complaint and said that they were giving me all my points back that I had used to reserve the room. The assistant general manager called me and said he could only give me a free night stay if I come back and stay again but would not give me back my points.  Richard front desk clerk was very nice.Do not stay More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r349179331-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>349179331</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>very nice stay</t>
+  </si>
+  <si>
+    <t>The service was very good, the room was very neat and clean. The hotel is in a good location on I45 was able to get lots of shopping done. Lots of places to choose to eat in the area, Red Lobster in walking distance(very nice).</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r319164768-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>319164768</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Great quiet place to stay</t>
+  </si>
+  <si>
+    <t>Really clean and quiet place to stay. Beautiful pool and hot tub area.  Great Breakfast is included and Chick fil A is just a few steps away. Check in was quick and easy, clerk was very friendly. No problems at all at this establishment.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r295130642-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
@@ -352,6 +466,45 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r261269840-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>261269840</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Wish I could give 50 stars!</t>
+  </si>
+  <si>
+    <t>This Comfort Suites near the Woodlands Texas is conveniently located off of I-45.  The hotel itself is tucked off of I-45 not far, but far enough there is no road traffic noise.  There is a Red Lobster right beside the hotel as well as another restuarant.  The staff at the front desk are very friendly and helpful, nice breakfast spread and the rooms are super clean and spacious.  Now, the best part....  I was staying at this hotel on a business trip and unfortunately had to go to the ER one evening.  Hector and Tina could not have been more helpful.  If it wasn't for either one of them, I truly would have been lost.  Being by myself, having an emergency and knowing I could count on them gave me some piece of mind throughout the painful ER visit.  Big shout out to both Hector and Tina!!  - god bless both of you!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This Comfort Suites near the Woodlands Texas is conveniently located off of I-45.  The hotel itself is tucked off of I-45 not far, but far enough there is no road traffic noise.  There is a Red Lobster right beside the hotel as well as another restuarant.  The staff at the front desk are very friendly and helpful, nice breakfast spread and the rooms are super clean and spacious.  Now, the best part....  I was staying at this hotel on a business trip and unfortunately had to go to the ER one evening.  Hector and Tina could not have been more helpful.  If it wasn't for either one of them, I truly would have been lost.  Being by myself, having an emergency and knowing I could count on them gave me some piece of mind throughout the painful ER visit.  Big shout out to both Hector and Tina!!  - god bless both of you!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r243629093-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>243629093</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This is one of the most relaxing and well kept hotel that I have stayed in for many years. The staff is friendly and very helpful, rooms are top-notch and very clean.  Great for business travelers but also feel like a family would love to stay here.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r235430354-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -373,22 +526,7 @@
     <t>232134960</t>
   </si>
   <si>
-    <t>10/01/2014</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>I would have given this Hotel a 4 if the Internet would have been better.  I called the front desk when I could not connect.  He then gave me the password.  Why he didn't give it to me at check in I have no idea.  Then I still couldn't connect.  I had to Tether my iPad in order to get useful internet.  The wireless signal for the Hotel kept going in and out.  I have seen other complaints about the same thing.  You would think they would have fixed it by now.  The lobby is beautiful, but don't be fooled.  The rest of the hotel is not as nice.  Rooms were Ok.  I had a Two Queen Non-Smoking room.  Fridge worked, Never used the microwave, Beds were comfortable, Water was Hot, nice roomy desk to work from, AC worked.  All in all it would have been a much better experience if the Internet would have been reliable.  Do you get that Brandon?????  Fix the internet.  It would also be nice if there were more outlets on the night stands to charge phones.  I had to unplug the Alarm Clock in order to charge my cell phone at the bed.  I use my cell phone as an alarm clock and want it by the bed.  I also noticed a cushion on a couch in the lobby was torn and stuffing was falling out of it.  You have a good start Brandon,...I would have given this Hotel a 4 if the Internet would have been better.  I called the front desk when I could not connect.  He then gave me the password.  Why he didn't give it to me at check in I have no idea.  Then I still couldn't connect.  I had to Tether my iPad in order to get useful internet.  The wireless signal for the Hotel kept going in and out.  I have seen other complaints about the same thing.  You would think they would have fixed it by now.  The lobby is beautiful, but don't be fooled.  The rest of the hotel is not as nice.  Rooms were Ok.  I had a Two Queen Non-Smoking room.  Fridge worked, Never used the microwave, Beds were comfortable, Water was Hot, nice roomy desk to work from, AC worked.  All in all it would have been a much better experience if the Internet would have been reliable.  Do you get that Brandon?????  Fix the internet.  It would also be nice if there were more outlets on the night stands to charge phones.  I had to unplug the Alarm Clock in order to charge my cell phone at the bed.  I use my cell phone as an alarm clock and want it by the bed.  I also noticed a cushion on a couch in the lobby was torn and stuffing was falling out of it.  You have a good start Brandon, but you still have a ways to go.  I am a Diamond member and for the price will not stay here again.  I will find another Choice Hotel or stay at the Hampton.  For the price difference I the Hampton has you beat.MoreShow less</t>
-  </si>
-  <si>
-    <t>Brandon20131, Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded October 6, 2014</t>
-  </si>
-  <si>
-    <t>Responded October 6, 2014</t>
-  </si>
-  <si>
-    <t>I would have given this Hotel a 4 if the Internet would have been better.  I called the front desk when I could not connect.  He then gave me the password.  Why he didn't give it to me at check in I have no idea.  Then I still couldn't connect.  I had to Tether my iPad in order to get useful internet.  The wireless signal for the Hotel kept going in and out.  I have seen other complaints about the same thing.  You would think they would have fixed it by now.  The lobby is beautiful, but don't be fooled.  The rest of the hotel is not as nice.  Rooms were Ok.  I had a Two Queen Non-Smoking room.  Fridge worked, Never used the microwave, Beds were comfortable, Water was Hot, nice roomy desk to work from, AC worked.  All in all it would have been a much better experience if the Internet would have been reliable.  Do you get that Brandon?????  Fix the internet.  It would also be nice if there were more outlets on the night stands to charge phones.  I had to unplug the Alarm Clock in order to charge my cell phone at the bed.  I use my cell phone as an alarm clock and want it by the bed.  I also noticed a cushion on a couch in the lobby was torn and stuffing was falling out of it.  You have a good start Brandon,...I would have given this Hotel a 4 if the Internet would have been better.  I called the front desk when I could not connect.  He then gave me the password.  Why he didn't give it to me at check in I have no idea.  Then I still couldn't connect.  I had to Tether my iPad in order to get useful internet.  The wireless signal for the Hotel kept going in and out.  I have seen other complaints about the same thing.  You would think they would have fixed it by now.  The lobby is beautiful, but don't be fooled.  The rest of the hotel is not as nice.  Rooms were Ok.  I had a Two Queen Non-Smoking room.  Fridge worked, Never used the microwave, Beds were comfortable, Water was Hot, nice roomy desk to work from, AC worked.  All in all it would have been a much better experience if the Internet would have been reliable.  Do you get that Brandon?????  Fix the internet.  It would also be nice if there were more outlets on the night stands to charge phones.  I had to unplug the Alarm Clock in order to charge my cell phone at the bed.  I use my cell phone as an alarm clock and want it by the bed.  I also noticed a cushion on a couch in the lobby was torn and stuffing was falling out of it.  You have a good start Brandon, but you still have a ways to go.  I am a Diamond member and for the price will not stay here again.  I will find another Choice Hotel or stay at the Hampton.  For the price difference I the Hampton has you beat.More</t>
+    <t>October 1, 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r225300990-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
@@ -410,6 +548,57 @@
   </si>
   <si>
     <t>This past weekend (Aug. 22 –Aug. 24) I took a quick trip to Huntsville to drop off my sister at the university. I decided to stay in Shenandoah since it’s only a 45 minute drive from the university.  I have absolutely nothing bad to say about the establishment; it was clean and simply a beautiful place. I had great service form all the staff but the issue was at check out. A woman of Indian ethnicity was there Sunday morning, I don’t know if she was part of the staff or the owner and I could care less. She was extremely rude and disrespectful to my father. My father who is of Mexican decent and just too nice to people who don’t deserve it, was ostracized by this woman. I was there with a special discount. When my father decided to go turn in the keys and thank the staff for the great services this woman not only questioned his identity, but also in a very accusing and threatening matter told him if he didn't prove who he was he would have to pay up the discount. I don’t know what kind of inferiority issues this woman has, or brought over but that’s not how we treat people here in Texas or America for that matter. Never in my life had I or any of my family experienced that sort of racism. Obviously if there was no issue at check...This past weekend (Aug. 22 –Aug. 24) I took a quick trip to Huntsville to drop off my sister at the university. I decided to stay in Shenandoah since it’s only a 45 minute drive from the university.  I have absolutely nothing bad to say about the establishment; it was clean and simply a beautiful place. I had great service form all the staff but the issue was at check out. A woman of Indian ethnicity was there Sunday morning, I don’t know if she was part of the staff or the owner and I could care less. She was extremely rude and disrespectful to my father. My father who is of Mexican decent and just too nice to people who don’t deserve it, was ostracized by this woman. I was there with a special discount. When my father decided to go turn in the keys and thank the staff for the great services this woman not only questioned his identity, but also in a very accusing and threatening matter told him if he didn't prove who he was he would have to pay up the discount. I don’t know what kind of inferiority issues this woman has, or brought over but that’s not how we treat people here in Texas or America for that matter. Never in my life had I or any of my family experienced that sort of racism. Obviously if there was no issue at check in, why would there be at check out other than ignorant people trying diminish others. If this woman is the owner she doesn't deserve to hold the brand. She can’t provide the simplest of services that go with the name of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r208940954-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>208940954</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>Rented two rooms. Room one filthy. Room two AC inop. New rooms. One was ok, AC failed in room two, take two. (Which was promptly repaired, I do note and appreciate.). Wifi didn't work at our end of the hall. Printer in lobby area was out of toner and wouldn't print. Had to email front desk, which the night auditor did print out very kindly. $1.50 per night added per room for the safe in the room. Probably one of the more expensive on the access road because of the appeal of the interior hallway access.  Bright parking lot lights lit room nicely since drapes don't close all the way to prevent covering the AC. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Brandon R, Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded June 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2014</t>
+  </si>
+  <si>
+    <t>Rented two rooms. Room one filthy. Room two AC inop. New rooms. One was ok, AC failed in room two, take two. (Which was promptly repaired, I do note and appreciate.). Wifi didn't work at our end of the hall. Printer in lobby area was out of toner and wouldn't print. Had to email front desk, which the night auditor did print out very kindly. $1.50 per night added per room for the safe in the room. Probably one of the more expensive on the access road because of the appeal of the interior hallway access.  Bright parking lot lights lit room nicely since drapes don't close all the way to prevent covering the AC. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r202911676-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>202911676</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Absolutely mind blowing!</t>
+  </si>
+  <si>
+    <t>The amount of customer service was jaw dropping. I was searching for a nice hotel at a reasonable price and although this was out of budget they made it happen! Richard at the front desk was an absolute sweet heart and was so helpful with the whole reservation process. I was totally blown away by this hotel. I will always recommend both Richard and the hotel in general to all of my friends. Thank you for all the help!! Writing this review was the LEAST I could doMoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon R, Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded April 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2014</t>
+  </si>
+  <si>
+    <t>The amount of customer service was jaw dropping. I was searching for a nice hotel at a reasonable price and although this was out of budget they made it happen! Richard at the front desk was an absolute sweet heart and was so helpful with the whole reservation process. I was totally blown away by this hotel. I will always recommend both Richard and the hotel in general to all of my friends. Thank you for all the help!! Writing this review was the LEAST I could doMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r191832671-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
@@ -489,6 +678,60 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r176940935-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>176940935</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Uncomfortable Suites &amp; Service</t>
+  </si>
+  <si>
+    <t>We stayed here for Ironman TX for three nights. The room was OK, but the air conditioning was too much. The pool area was in disrepair, the towels by the pool were rusted and looked as if they were there for 3 weeks. The air conditioning was set at 62 the first day, so we turned it up. The next day, after the room was cleaned, it was back down to 60. Since the pool was gross, we really had nowhere to go to relax. The room temp was a problem. Next, we left a note requesting to leave the thermostat where we left it. I didn't want to come back from doing Ironman Texas and have to freeze in my room. Well, we came back that night, and the temp was set at 56. Now, it wasn't 56 in there, but it was AWFUL and cold!
+The night before my race, there were loud people from some conference on our floor, laughing, talking, and slamming doors over and over and over from 12:30 a.m.-3:30 a.m. My race day started a little groggy from lack of sleep. 
+Upon checking out, the desk person was mildly interested in our complaints. He suggested that if we had written the note in Spanish, perhaps the cleaning people would have honored our request. This made us feel as if it was our problem we had a poor experience.
+A month later, I talked to...We stayed here for Ironman TX for three nights. The room was OK, but the air conditioning was too much. The pool area was in disrepair, the towels by the pool were rusted and looked as if they were there for 3 weeks. The air conditioning was set at 62 the first day, so we turned it up. The next day, after the room was cleaned, it was back down to 60. Since the pool was gross, we really had nowhere to go to relax. The room temp was a problem. Next, we left a note requesting to leave the thermostat where we left it. I didn't want to come back from doing Ironman Texas and have to freeze in my room. Well, we came back that night, and the temp was set at 56. Now, it wasn't 56 in there, but it was AWFUL and cold!The night before my race, there were loud people from some conference on our floor, laughing, talking, and slamming doors over and over and over from 12:30 a.m.-3:30 a.m. My race day started a little groggy from lack of sleep. Upon checking out, the desk person was mildly interested in our complaints. He suggested that if we had written the note in Spanish, perhaps the cleaning people would have honored our request. This made us feel as if it was our problem we had a poor experience.A month later, I talked to the manager on the phone and requested a partial refund. He wanted me to email him the info (and, I had photos of that nasty pool). I did this in July 2013; it's now 9/12/13 and I have followed up 2x to no avail. The service around this property is far more disappointing than the actual experience. Ironman athletes, business people, don't go here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded September 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for Ironman TX for three nights. The room was OK, but the air conditioning was too much. The pool area was in disrepair, the towels by the pool were rusted and looked as if they were there for 3 weeks. The air conditioning was set at 62 the first day, so we turned it up. The next day, after the room was cleaned, it was back down to 60. Since the pool was gross, we really had nowhere to go to relax. The room temp was a problem. Next, we left a note requesting to leave the thermostat where we left it. I didn't want to come back from doing Ironman Texas and have to freeze in my room. Well, we came back that night, and the temp was set at 56. Now, it wasn't 56 in there, but it was AWFUL and cold!
+The night before my race, there were loud people from some conference on our floor, laughing, talking, and slamming doors over and over and over from 12:30 a.m.-3:30 a.m. My race day started a little groggy from lack of sleep. 
+Upon checking out, the desk person was mildly interested in our complaints. He suggested that if we had written the note in Spanish, perhaps the cleaning people would have honored our request. This made us feel as if it was our problem we had a poor experience.
+A month later, I talked to...We stayed here for Ironman TX for three nights. The room was OK, but the air conditioning was too much. The pool area was in disrepair, the towels by the pool were rusted and looked as if they were there for 3 weeks. The air conditioning was set at 62 the first day, so we turned it up. The next day, after the room was cleaned, it was back down to 60. Since the pool was gross, we really had nowhere to go to relax. The room temp was a problem. Next, we left a note requesting to leave the thermostat where we left it. I didn't want to come back from doing Ironman Texas and have to freeze in my room. Well, we came back that night, and the temp was set at 56. Now, it wasn't 56 in there, but it was AWFUL and cold!The night before my race, there were loud people from some conference on our floor, laughing, talking, and slamming doors over and over and over from 12:30 a.m.-3:30 a.m. My race day started a little groggy from lack of sleep. Upon checking out, the desk person was mildly interested in our complaints. He suggested that if we had written the note in Spanish, perhaps the cleaning people would have honored our request. This made us feel as if it was our problem we had a poor experience.A month later, I talked to the manager on the phone and requested a partial refund. He wanted me to email him the info (and, I had photos of that nasty pool). I did this in July 2013; it's now 9/12/13 and I have followed up 2x to no avail. The service around this property is far more disappointing than the actual experience. Ironman athletes, business people, don't go here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r174196610-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>174196610</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Long term stay</t>
+  </si>
+  <si>
+    <t>Recently I stayed at this location for 30 days.  I was renovating my new home and needed a place to stay and work.  At first, I booked at another hotel in the area and after one night I wanted out!  The staff was amazing, better than some high end hotels I've stayed. The rooms were comfortable and I can truly say I enjoyed my stay.  If you are looking for a good value in the area, you can't beat the Comfort Suites.  Trust me, I went to every hotel in the area looking for a decent price and a safe comfortable atmosphere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Recently I stayed at this location for 30 days.  I was renovating my new home and needed a place to stay and work.  At first, I booked at another hotel in the area and after one night I wanted out!  The staff was amazing, better than some high end hotels I've stayed. The rooms were comfortable and I can truly say I enjoyed my stay.  If you are looking for a good value in the area, you can't beat the Comfort Suites.  Trust me, I went to every hotel in the area looking for a decent price and a safe comfortable atmosphere.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r172026181-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -543,6 +786,51 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r162047724-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>162047724</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>Stayed here many times</t>
+  </si>
+  <si>
+    <t>This the hotel my family chose when visiting the Houston areas. I will go through pros and cons and make some suggestions and hopefully things change for the better. Pros: Close to the Woodlands and I-45. I-45 is your big highway around the Houston area.Friendly staff, the staff are very helpful and very friendly.Good value, instead of spending tons of money staying right by the Woodlands mall, you can save some money and still be minutes away from the fun areas.Rooms are big and quiet.Cons:Appliances are old and some don't work, some rooms have better appliances some don't, we didn't bother getting our coffee machine replaced but it didn't work. I'm sure they will replace it if asked to.Suggestions:Front desk needs a bell. Sometime there are no one at the front desk, a bell would allow the customers to get help right away.TV channel list, every room should have a list of all the available TV channels. No one has time scrolling through all the channels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded July 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2013</t>
+  </si>
+  <si>
+    <t>This the hotel my family chose when visiting the Houston areas. I will go through pros and cons and make some suggestions and hopefully things change for the better. Pros: Close to the Woodlands and I-45. I-45 is your big highway around the Houston area.Friendly staff, the staff are very helpful and very friendly.Good value, instead of spending tons of money staying right by the Woodlands mall, you can save some money and still be minutes away from the fun areas.Rooms are big and quiet.Cons:Appliances are old and some don't work, some rooms have better appliances some don't, we didn't bother getting our coffee machine replaced but it didn't work. I'm sure they will replace it if asked to.Suggestions:Front desk needs a bell. Sometime there are no one at the front desk, a bell would allow the customers to get help right away.TV channel list, every room should have a list of all the available TV channels. No one has time scrolling through all the channels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r160814156-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>160814156</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Exceptional staff, great place to stay</t>
+  </si>
+  <si>
+    <t>This was the best service and most caring and helpful staff of any hotel I've ever stayed in! This was true with the top managers, desk staff, housekeeping and maintenance. I felt like I was in their home rather than in a hotel. I was to be there a few nights, but because of a family emergency, I was there 22 nights. The room was very comfortable and clean. Breakfasts had a wide variety of good choices and plentiful quantities, and they served dinner some nights. The shuttle service was invaluable. They even came in early, or on an off day, or stayed late for the hours I needed to be at a nursing home. The internet connection always was good, and I printed a boarding pass. The laundry was a big help for my extended stay. I'm a very grateful guest!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>This was the best service and most caring and helpful staff of any hotel I've ever stayed in! This was true with the top managers, desk staff, housekeeping and maintenance. I felt like I was in their home rather than in a hotel. I was to be there a few nights, but because of a family emergency, I was there 22 nights. The room was very comfortable and clean. Breakfasts had a wide variety of good choices and plentiful quantities, and they served dinner some nights. The shuttle service was invaluable. They even came in early, or on an off day, or stayed late for the hours I needed to be at a nursing home. The internet connection always was good, and I printed a boarding pass. The laundry was a big help for my extended stay. I'm a very grateful guest!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r160751034-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -558,9 +846,6 @@
     <t>I stayed here for a week on a business trip. The room was fine. Lobby was nice. Other areas looked a bit run down. The staff were very nice and helpful! The big ding for this hotel is the Internet. Being here on business, I had to do a couple of Internet dependent webinars from 5:30-7:30. The Internet connectivity made this extremely challenging. If a hotel is going to advertise Internet availability, it should be able to deliver on that claim.MoreShow less</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>Jeff M, General Manager at Clarion Suites Near the Woodlands, responded to this reviewResponded July 8, 2013</t>
   </si>
   <si>
@@ -612,9 +897,6 @@
     <t>i would recommend this hotel. We had a basketball team staying here. it was perfect. The staff was great, the rooms were clean, the breakfast was good and the location was excellent. The rate was reasonable. The on-site laundry was a plus!MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded April 17, 2013</t>
   </si>
   <si>
@@ -624,6 +906,57 @@
     <t>i would recommend this hotel. We had a basketball team staying here. it was perfect. The staff was great, the rooms were clean, the breakfast was good and the location was excellent. The rate was reasonable. The on-site laundry was a plus!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r156740908-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>156740908</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Happy stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a wedding that was at Townhall Texas. The staff was super nice, the room I stayed in was wonderful, the breakfast was great, and the drive was very easy to the hall. I will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded April 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for a wedding that was at Townhall Texas. The staff was super nice, the room I stayed in was wonderful, the breakfast was great, and the drive was very easy to the hall. I will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r155894613-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>155894613</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Slightly below average</t>
+  </si>
+  <si>
+    <t>Not impressed with the overall appearance of the hotel, looks like a 13 year-old girl decorated the lobby. You can tell they are trying hard to be modern, but it just doesn't work. And I agree with the previous post that it looks like a brothel.The staff is very friendly, but not the brightest bunch, and it appears their experience in the hospitality industry is limited. When we complained that the door and lock to our room was damaged (it didn't lock half of the time), a staff member jiggled the door handle and lock and said "it's fine." Whatever. We just didn't keep anything valuable in the room while we were out.We also noted that the linens to the pull out sofa had not been turned over in between occupants. When we pointed this out, a cleaning lady said, "oh, it hasn't been changed today?" NO. It hadn't been changed-EVER.What's that one show where the hotel expert comes in and does a complete renovation? Yeah, this hotel needs that. Would not recommend or stay here again. Life is too short to stay is so-so hotels. My advice is to stay at the Hampton Inn right next door. A friend stayed here while we were at the Comfort Suites due to no vacancy and let me tell you the difference was obvious.MoreShow less</t>
+  </si>
+  <si>
+    <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded March 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2013</t>
+  </si>
+  <si>
+    <t>Not impressed with the overall appearance of the hotel, looks like a 13 year-old girl decorated the lobby. You can tell they are trying hard to be modern, but it just doesn't work. And I agree with the previous post that it looks like a brothel.The staff is very friendly, but not the brightest bunch, and it appears their experience in the hospitality industry is limited. When we complained that the door and lock to our room was damaged (it didn't lock half of the time), a staff member jiggled the door handle and lock and said "it's fine." Whatever. We just didn't keep anything valuable in the room while we were out.We also noted that the linens to the pull out sofa had not been turned over in between occupants. When we pointed this out, a cleaning lady said, "oh, it hasn't been changed today?" NO. It hadn't been changed-EVER.What's that one show where the hotel expert comes in and does a complete renovation? Yeah, this hotel needs that. Would not recommend or stay here again. Life is too short to stay is so-so hotels. My advice is to stay at the Hampton Inn right next door. A friend stayed here while we were at the Comfort Suites due to no vacancy and let me tell you the difference was obvious.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r155250164-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -660,9 +993,6 @@
     <t>We are staying at the comfort suites in Shenandoah hotel, it is a very clean hotel great location close to everything. Just around the corner from the pool. Hotel staff is extremely professional and friendly front desk staff is always ready and available to help with any questions.  If you are coming to Shenandoah I would not stay any where else.MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>We are staying at the comfort suites in Shenandoah hotel, it is a very clean hotel great location close to everything. Just around the corner from the pool. Hotel staff is extremely professional and friendly front desk staff is always ready and available to help with any questions.  If you are coming to Shenandoah I would not stay any where else.More</t>
   </si>
   <si>
@@ -690,6 +1020,48 @@
     <t>We,The Martinsens, are planning a trip to Virginia and back the last of May to June 6 and neded reservations for the hotels on our trip.  George knew the hotels he needed reservations for but was finding very difficult to make them himself due to the foriegn accent of those getting the information for him.Brandon was very obliging in doing this for George.  He just sent us a list of comfirmed reservations.  We are very pleased at the service he and Jeff provided.  The Comfort Suites in Shenodoah near the Woodlands is our place to stay when we are in that area.our Blessings on Grace and all those who make our stay so pleasan and home like. We consider this hotel as our second homeNancy MMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r154714691-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>154714691</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Horrible!!</t>
+  </si>
+  <si>
+    <t>Please do not be fooled by the pictures. The place is horrible and over priced. The rooms are in the same comparison with an Econo Lodge. The lobby is gawdy. It looks like a brothel. The staff try to be nice however they are not trained professionally. Breakfast was horrible over cooked biscuits sausages and eggs. To make matters worse the night guy kept coming to breakfast area soliciting the guest to take a survey and give the hotel a good score. We just wanted to have a quiet breakfast. I do believe there were bedbugs in the room we hide bites on us that we did not have before we got there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Please do not be fooled by the pictures. The place is horrible and over priced. The rooms are in the same comparison with an Econo Lodge. The lobby is gawdy. It looks like a brothel. The staff try to be nice however they are not trained professionally. Breakfast was horrible over cooked biscuits sausages and eggs. To make matters worse the night guy kept coming to breakfast area soliciting the guest to take a survey and give the hotel a good score. We just wanted to have a quiet breakfast. I do believe there were bedbugs in the room we hide bites on us that we did not have before we got there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r153740533-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>153740533</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Reservation nightmare</t>
+  </si>
+  <si>
+    <t>I had the most difficulty I've ever had in making and confirming reservations. Was told I needed to speak with the general manager and each time I called back over 3 days he was going to be in to work the "next hour/next day" and would contact me. When I finally got a hold of the manager (he accidently answered the phone, but had to call me back in "10 minutes" to help a customer on the front desk). Five minutes later I received a call from another worker, who once again was unable to answer any of my questions and was going to have the manager call me back. After waiting an hour, I called back with a message from the manager for me, but was not available to talk with me at that time. I am currently still waiting for him to return my call. I've never received such poor customer service, and having been in the industry for 7 years, feel that being short and unavailable to customers is probably the worst thing you can do. The customer may not always be right, but a little respect would go a long way.MoreShow less</t>
+  </si>
+  <si>
+    <t>CSCustomer_Care, Comfort Suites at Clarion Suites Near the Woodlands, responded to this reviewResponded March 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2013</t>
+  </si>
+  <si>
+    <t>I had the most difficulty I've ever had in making and confirming reservations. Was told I needed to speak with the general manager and each time I called back over 3 days he was going to be in to work the "next hour/next day" and would contact me. When I finally got a hold of the manager (he accidently answered the phone, but had to call me back in "10 minutes" to help a customer on the front desk). Five minutes later I received a call from another worker, who once again was unable to answer any of my questions and was going to have the manager call me back. After waiting an hour, I called back with a message from the manager for me, but was not available to talk with me at that time. I am currently still waiting for him to return my call. I've never received such poor customer service, and having been in the industry for 7 years, feel that being short and unavailable to customers is probably the worst thing you can do. The customer may not always be right, but a little respect would go a long way.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r152973870-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -756,6 +1128,42 @@
     <t>Very rarely do I remember the front desk personnel, but Oscar gave exceptional service as well as honoring a great rate. The hotel is clean, the bed is comfortable and all the typical amenities are present. I'm also a sucker for the receipt under the door trick. The GM of the hotel sent me a personal thank you note and that is very rare in hospitality. NO, it was not an automated email. It was a personal note. I took the time to respond and I'm here now. They have a customer for life. Internet is fast. water hot. AC/Heat works great. Coffee is good in the morning, and breakfast is just enough to get you started. It's a difficult hotel market in North Houston. This place is reliable.  --happy traveler.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r144107006-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>144107006</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Excellent Value!</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and let me tell you "It is a GREAT value"!  The rooms are spacious and clean.  The front desk staff was so friendly and helpful. The complimentary breakfast exceeded my expectations.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r143870202-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>143870202</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel, Excellent customer service</t>
+  </si>
+  <si>
+    <t>We stayed this hotel several times, each time we stay there the hotel is always full, but the staff is always friendly. our room is always very clean and fresh. this time we needed shuttle service out of their regular scheduled hours, they went out their way and called in their drive just to send where we needed to go. This is the only hotel we will stay in the Woodlands area when we visit. we are very happy with the hotel!</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r143468128-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -769,9 +1177,6 @@
   </si>
   <si>
     <t>We had an overnight stay in this old, poorly maintained property this weekend.  Our biggest concern of many, was that the deadbolt on our room did not work - did not feel safe.  Asked a night manager to move us but were unable due to hotel being full.   Apologized, but said there was nothing that could be done, and agreed it was not a safe situation.  Hotel management could have cared less that the room didn't lock and the complaint was handled in a most unprofessional manner the next morning.  My advice - steer clear of this run down property.  There are many other hotel options close by that would offer a much different experience.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2012</t>
   </si>
   <si>
     <t>We had an overnight stay in this old, poorly maintained property this weekend.  Our biggest concern of many, was that the deadbolt on our room did not work - did not feel safe.  Asked a night manager to move us but were unable due to hotel being full.   Apologized, but said there was nothing that could be done, and agreed it was not a safe situation.  Hotel management could have cared less that the room didn't lock and the complaint was handled in a most unprofessional manner the next morning.  My advice - steer clear of this run down property.  There are many other hotel options close by that would offer a much different experience.More</t>
@@ -822,6 +1227,39 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r132187078-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>132187078</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Clean rooms</t>
+  </si>
+  <si>
+    <t>This hotel has been one of the best hotels i have stayed at. One thing that i always look for is a clean room. The staff went out of their way to accomadate me and my family. They also had a shuttle which took us around when needed. I could not find another hotel in the area which offered that. Would definatly stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r131866017-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>131866017</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Dirty, unhelpful and disappointing</t>
+  </si>
+  <si>
+    <t>Staff was rude and completely disinterested in helping with anything.  The hotel looks nice and relatively up-to-date on the internet, but in person it appears to be dirty with simply some up-to-date furniture.  The bathroom was dirty and old.  The ice machine was broken on the floor.  The room a/c was turned off when we arrived, so we had to wait several hours for the room to become a bearable temperature.  The wifi was not working when we got there.  The overall experience was highly disappointing.    Would never stay there again!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r127139806-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -879,6 +1317,45 @@
     <t>I originally booked 2 rooms for 3 nights. I called the day before and added one day for one room. I called prior to my arrival due to being lost and asked for directions. I was on I-45 but could not locate them. The night clerk had not idea about the surrounding area and told me he could not help me. I found the hotel and checked in which took longer due to none of the computers operating correctly. I listened to the desk clerks entire story of his kidney stone surgery and how he was out of work for a week etc. I cancelled the 2 rooms for the three days and he wrote down my confirmation number. Upon waking up and getting ready to leave my 2 children were sleeping on the sofa bed and found a strange pair of mens underwear in the sheets and blankets. Upon checkout when I advised the desk clerk of this the response I received was "oh wow". Unprofessional and inexcusable. After my vacation I noticed my bank was charged $571.44 when my one night stay was only $129. I called and spoke with Jason the clerk who told me the second room was not cancelled. Their clerk made an error and now they want to charge me. Their error is now something I am having to fight to get corrected. Jason stated he would have the manager get back with me...I originally booked 2 rooms for 3 nights. I called the day before and added one day for one room. I called prior to my arrival due to being lost and asked for directions. I was on I-45 but could not locate them. The night clerk had not idea about the surrounding area and told me he could not help me. I found the hotel and checked in which took longer due to none of the computers operating correctly. I listened to the desk clerks entire story of his kidney stone surgery and how he was out of work for a week etc. I cancelled the 2 rooms for the three days and he wrote down my confirmation number. Upon waking up and getting ready to leave my 2 children were sleeping on the sofa bed and found a strange pair of mens underwear in the sheets and blankets. Upon checkout when I advised the desk clerk of this the response I received was "oh wow". Unprofessional and inexcusable. After my vacation I noticed my bank was charged $571.44 when my one night stay was only $129. I called and spoke with Jason the clerk who told me the second room was not cancelled. Their clerk made an error and now they want to charge me. Their error is now something I am having to fight to get corrected. Jason stated he would have the manager get back with me because she was out at that time. Its been 2 days....how unprofessional is that! I am currently looking for other resources or corporate affiliations I can take my problem to. They are over charging me for their employee error and have no courtesy to even call and discuss this. I would NEVER advise anyone to stay at this hotel and I am going to be sure to post on every site I can find to let them know. I am also writing to the Renissance board to advise them they may not want to be affilitated with this hotel in the future. Adding the complaints that I have already found that may not be a hard decision for them.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r120480824-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>120480824</t>
+  </si>
+  <si>
+    <t>11/11/2011</t>
+  </si>
+  <si>
+    <t>Back Again</t>
+  </si>
+  <si>
+    <t>I don't care what you say, you can't beat a clean hotel with a friendly staff. They never disappoint me. The room was great and even gave me the same room. They said they remembered but I really doubt they did.....but either way the hospitality was the best. I travel a lot and I will always enjoy coming back here! Highly recommend to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>Grace J, Owner at Clarion Suites Near the Woodlands, responded to this reviewResponded November 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2011</t>
+  </si>
+  <si>
+    <t>I don't care what you say, you can't beat a clean hotel with a friendly staff. They never disappoint me. The room was great and even gave me the same room. They said they remembered but I really doubt they did.....but either way the hospitality was the best. I travel a lot and I will always enjoy coming back here! Highly recommend to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r120066184-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>120066184</t>
+  </si>
+  <si>
+    <t>11/02/2011</t>
+  </si>
+  <si>
+    <t>Be aware of rate changes during your stay</t>
+  </si>
+  <si>
+    <t>This hotel looks very dated and I will not be returning.  Before initialing anything, check for room rate adjustments.  I requested an price adjustment to the quoted room rate and recieved an undesireable response from management.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r118455332-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -897,12 +1374,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Grace J, Owner at Clarion Suites Near the Woodlands, responded to this reviewResponded November 21, 2011</t>
-  </si>
-  <si>
-    <t>Responded November 21, 2011</t>
-  </si>
-  <si>
     <t>we stayed at this hotel in order to avoid long commute from Pearland, TX.  Overall it's a clean hotel.  Not updated or modern looking..but it was clean.  It was very close to Market Street and provided the essentials.  nothing fancy but you don't pay the high prices either.staff was very friendly...the hotel just needs new carpet and fresh paint.  if you can overlook the aethetics then it's ok.More</t>
   </si>
   <si>
@@ -948,6 +1419,42 @@
     <t>Recently stayed with some associates on a business trip and it was a nice experience so I came back when we went on vacation with my family. Everything was great! Large comfortable room, pool perfect, breakfast.....all I can say is wow, and the people were the nicest and very professional. Great job guys! ThanksMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r115303996-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>115303996</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>BIG DISAPPOINTMENT</t>
+  </si>
+  <si>
+    <t>As others stated, the lobby is beautiful, clean and modern. The one other good thing was the free full breakfast, it was one of the best I have ever enjoyed. Oh also, the hall carpet had been replaced because it was new and very brightly colored. Now after you leave the hallway it goes down hill.When we entered the room it had a musty, stale kind of smell even though this was a non smoking. but it was more like a moldly smell. The baseboards were dirty and maybe even moldly. The comforters had stains. There were no towlels in the room. And the toliet ran all night. We asked to all the linens to be changed and they did put new comforters on. It seemed like they tried to spray something while we were gone for the smell but it didn't help. Wouldn't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>As others stated, the lobby is beautiful, clean and modern. The one other good thing was the free full breakfast, it was one of the best I have ever enjoyed. Oh also, the hall carpet had been replaced because it was new and very brightly colored. Now after you leave the hallway it goes down hill.When we entered the room it had a musty, stale kind of smell even though this was a non smoking. but it was more like a moldly smell. The baseboards were dirty and maybe even moldly. The comforters had stains. There were no towlels in the room. And the toliet ran all night. We asked to all the linens to be changed and they did put new comforters on. It seemed like they tried to spray something while we were gone for the smell but it didn't help. Wouldn't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r114995823-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>114995823</t>
+  </si>
+  <si>
+    <t>07/03/2011</t>
+  </si>
+  <si>
+    <t>Unprofessionally run dirty</t>
+  </si>
+  <si>
+    <t>First of all we asked for a non-smoking room.  We got a room that was designated as non-smoking, but we could smell that someone had smoked there before.  There were stains on the comforter as well as the couch.  I found a half used jelly container from a prior night on the floor.  The bathroom calking was done by someone not professional.  My six your old could have done a better job.   The carpeting in the hallway was new, but very tacky.   The furniture in the lobby was very tacky.  The paint job in the hall way was again done by someone who was not professional.   Looked like the way I paint at home.  It looked like it was a family who either owned the hotel or was running it and their family was working there.   The cleaning people looked like they came from the same family and one looked like a daughter who just came in from the prior night on the town.    They were wearing jeans and not the normal uniforms cleaning people wear.  Don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all we asked for a non-smoking room.  We got a room that was designated as non-smoking, but we could smell that someone had smoked there before.  There were stains on the comforter as well as the couch.  I found a half used jelly container from a prior night on the floor.  The bathroom calking was done by someone not professional.  My six your old could have done a better job.   The carpeting in the hallway was new, but very tacky.   The furniture in the lobby was very tacky.  The paint job in the hall way was again done by someone who was not professional.   Looked like the way I paint at home.  It looked like it was a family who either owned the hotel or was running it and their family was working there.   The cleaning people looked like they came from the same family and one looked like a daughter who just came in from the prior night on the town.    They were wearing jeans and not the normal uniforms cleaning people wear.  Don't stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r114272548-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1512,39 @@
     <t>General manager, Grace, does not address your concerns, talks over you, does not care about customer service, stating "you are not our problem". Night receptionist, Josh, offered no help to stranded girls and  was laughing at out distress. Another hotel aided in our safe return.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r86276004-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>86276004</t>
+  </si>
+  <si>
+    <t>If I could rate a 0 I would.</t>
+  </si>
+  <si>
+    <t>General manager [Grace] rude and degrading. Receptionist [Josh] refused to offer any help to 4 girls being stranded in the middle of the night, 40 degrees, with a cell phone almost out of battery.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r84843322-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>84843322</t>
+  </si>
+  <si>
+    <t>10/25/2010</t>
+  </si>
+  <si>
+    <t>Sofa was broken and no one knew!!!!!!</t>
+  </si>
+  <si>
+    <t>Communication over the telephone was good, but when we checked in around 10pm and went up to the room, the sofa bed was half pulled out with cushions on the floor.  When we called downstairs, no one knew the sofa was broken.  It was sooooo obvious, the housekeeper or someone had to know.  They did quickly bring up a rollaway and were told we would get a 15% break on the room (the room was two queen beds and they had charged $10.00 extra because there were three of us)  The next morning we were told they were only going to give up the $10.00 off.  They also did not have pillows for the rollaway so had to take pillows from the others beds, they also had no "Do Not Disturb" signs when we asked for one.  The hotel was generally clean, but there are so many nicer rooms with better service.  The business center was just a computer in the lobby with a printer,  there was no privacy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Communication over the telephone was good, but when we checked in around 10pm and went up to the room, the sofa bed was half pulled out with cushions on the floor.  When we called downstairs, no one knew the sofa was broken.  It was sooooo obvious, the housekeeper or someone had to know.  They did quickly bring up a rollaway and were told we would get a 15% break on the room (the room was two queen beds and they had charged $10.00 extra because there were three of us)  The next morning we were told they were only going to give up the $10.00 off.  They also did not have pillows for the rollaway so had to take pillows from the others beds, they also had no "Do Not Disturb" signs when we asked for one.  The hotel was generally clean, but there are so many nicer rooms with better service.  The business center was just a computer in the lobby with a printer,  there was no privacy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r61779500-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1605,55 @@
     <t>When visiting Conroe, TX, we usually stay at the Comfort Inn on League Line Rd., however, this trip we opted to stay at the Comfort Suites near the Woodlands as we would be shopping in the area.  The lobby is very nice, the breakfast was a full breakfast rather than only continental style, but our room was not exceptionally clean.  I found a bug on the pillow, which made me leary so I stripped the whole bed and remade it to ensure there were no other bugs.  Also, the bathroom vanity is in the room with the shower as opposed to being outside in the dressing area, which poses a problem for two people trying to get ready at the same time.  This hotel is $10 more a night than the Comfort Inn at League Line Rd., so we will continue to stay there when in the Conroe area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r34041855-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>34041855</t>
+  </si>
+  <si>
+    <t>07/06/2009</t>
+  </si>
+  <si>
+    <t>Not good if you want a sofa bed</t>
+  </si>
+  <si>
+    <t>First the good points:
+Nice lobby, friendly staff and a microwave and refrigerator in rooms.
+Now the not so good:  
+Once away from the lobby the decor is not so inviting.  In the corridors, the carpet is worn and frayed, walls have lots of dents and damage and the carpets didn't look very clean (they may have been, but the shabby and frayed appearence gave the impression of not being clean).  The room we had was not as badly knocked around, but still suffered from a tired look.
+We checked in at 9:30pm after long travel with youngsters and the air con in the room was off when we moved in.  This is the Houston area at the height of summer.....  It took a hour to get the room down to a comfortable sleeping temperature. There were very few people staying (it was 4th July weekend so the quietness was a surprise) so maybe they have aircon off in rooms to save money?).
+The 'deal breaker' for us was the poor state of the sofa bed.  We specifically book rooms to get a sofa bed to enable us to seperate our two children.  This was the worst sofa bed that we have ever tried to use (and we've seen plenty in 3 star hotels over four years of travelling with young kids).  The matress was very thin and worn and you could feel every coil in it.  It was unacceptable...First the good points:Nice lobby, friendly staff and a microwave and refrigerator in rooms.Now the not so good:  Once away from the lobby the decor is not so inviting.  In the corridors, the carpet is worn and frayed, walls have lots of dents and damage and the carpets didn't look very clean (they may have been, but the shabby and frayed appearence gave the impression of not being clean).  The room we had was not as badly knocked around, but still suffered from a tired look.We checked in at 9:30pm after long travel with youngsters and the air con in the room was off when we moved in.  This is the Houston area at the height of summer.....  It took a hour to get the room down to a comfortable sleeping temperature. There were very few people staying (it was 4th July weekend so the quietness was a surprise) so maybe they have aircon off in rooms to save money?).The 'deal breaker' for us was the poor state of the sofa bed.  We specifically book rooms to get a sofa bed to enable us to seperate our two children.  This was the worst sofa bed that we have ever tried to use (and we've seen plenty in 3 star hotels over four years of travelling with young kids).  The matress was very thin and worn and you could feel every coil in it.  It was unacceptable to use as a bed and we had to put both kids in together.   The air conditioning (once 'going)  was noisy.  It was difficult to get our kids to settle in the same bed, in a hot room with noisy air conditioning going.  I can't really recommend this hotel if you are traveling with kids, especially if you need the sofa bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>First the good points:
+Nice lobby, friendly staff and a microwave and refrigerator in rooms.
+Now the not so good:  
+Once away from the lobby the decor is not so inviting.  In the corridors, the carpet is worn and frayed, walls have lots of dents and damage and the carpets didn't look very clean (they may have been, but the shabby and frayed appearence gave the impression of not being clean).  The room we had was not as badly knocked around, but still suffered from a tired look.
+We checked in at 9:30pm after long travel with youngsters and the air con in the room was off when we moved in.  This is the Houston area at the height of summer.....  It took a hour to get the room down to a comfortable sleeping temperature. There were very few people staying (it was 4th July weekend so the quietness was a surprise) so maybe they have aircon off in rooms to save money?).
+The 'deal breaker' for us was the poor state of the sofa bed.  We specifically book rooms to get a sofa bed to enable us to seperate our two children.  This was the worst sofa bed that we have ever tried to use (and we've seen plenty in 3 star hotels over four years of travelling with young kids).  The matress was very thin and worn and you could feel every coil in it.  It was unacceptable...First the good points:Nice lobby, friendly staff and a microwave and refrigerator in rooms.Now the not so good:  Once away from the lobby the decor is not so inviting.  In the corridors, the carpet is worn and frayed, walls have lots of dents and damage and the carpets didn't look very clean (they may have been, but the shabby and frayed appearence gave the impression of not being clean).  The room we had was not as badly knocked around, but still suffered from a tired look.We checked in at 9:30pm after long travel with youngsters and the air con in the room was off when we moved in.  This is the Houston area at the height of summer.....  It took a hour to get the room down to a comfortable sleeping temperature. There were very few people staying (it was 4th July weekend so the quietness was a surprise) so maybe they have aircon off in rooms to save money?).The 'deal breaker' for us was the poor state of the sofa bed.  We specifically book rooms to get a sofa bed to enable us to seperate our two children.  This was the worst sofa bed that we have ever tried to use (and we've seen plenty in 3 star hotels over four years of travelling with young kids).  The matress was very thin and worn and you could feel every coil in it.  It was unacceptable to use as a bed and we had to put both kids in together.   The air conditioning (once 'going)  was noisy.  It was difficult to get our kids to settle in the same bed, in a hot room with noisy air conditioning going.  I can't really recommend this hotel if you are traveling with kids, especially if you need the sofa bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r31053333-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>31053333</t>
+  </si>
+  <si>
+    <t>05/28/2009</t>
+  </si>
+  <si>
+    <t>Lovely Hotel - Very Pleasent - Great Staff</t>
+  </si>
+  <si>
+    <t>I have stayed at quite a few hotels around the US,  rarely do you find such a peaceful lobby upon entering a nice, but affordable hotel.  There are comfortable sofas, flower arrangements, beautiful lamps, and a small water feature which make the first impression quite nice.   The employees are very kind and make the experience nice.  This hotel works hard to provide bright and welcoming service all around.  After just a few minutes in the room, I warmed up and felt very comfortable. The rooms are cozy and the beds are comfortable.   It is a nice hotel where they will give you one-on-one attention to make your stay as comfortable as possible.They offer a nice free breakfast, a couple of nights a week they have dinner such as pizza for free as well.  The internet is high speed and works well:)  I live in the area, and they are very conveniently located to anything you want to do here.  Minutes away from lots of popular restaurants!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>I have stayed at quite a few hotels around the US,  rarely do you find such a peaceful lobby upon entering a nice, but affordable hotel.  There are comfortable sofas, flower arrangements, beautiful lamps, and a small water feature which make the first impression quite nice.   The employees are very kind and make the experience nice.  This hotel works hard to provide bright and welcoming service all around.  After just a few minutes in the room, I warmed up and felt very comfortable. The rooms are cozy and the beds are comfortable.   It is a nice hotel where they will give you one-on-one attention to make your stay as comfortable as possible.They offer a nice free breakfast, a couple of nights a week they have dinner such as pizza for free as well.  The internet is high speed and works well:)  I live in the area, and they are very conveniently located to anything you want to do here.  Minutes away from lots of popular restaurants!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r28654580-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1080,9 +1669,6 @@
     <t>This hotel was amazing.  Great staff, great features, and at a great value.  The hotels in the area were about a hundred bucks more than Comfort Suites, so I made the decision initially for value.  However, it turned out to be much more than that. The internet was certainly high-speed.  I had some slow wireless internet, but the staff worked with me and fixed the problem.  I ended up using the hard-wire provided in the room and got really high-speed service.The staff was incredible!  Really friendly and really helpful, they directed me to several excellent restaurants in the area and even printed maps for me.  The head manager was extremely nice.It's in a great location too - right in The Woodlands.  One minute from the mall, market street, and great restaurants.MoreShow less</t>
   </si>
   <si>
-    <t>April 2009</t>
-  </si>
-  <si>
     <t>This hotel was amazing.  Great staff, great features, and at a great value.  The hotels in the area were about a hundred bucks more than Comfort Suites, so I made the decision initially for value.  However, it turned out to be much more than that. The internet was certainly high-speed.  I had some slow wireless internet, but the staff worked with me and fixed the problem.  I ended up using the hard-wire provided in the room and got really high-speed service.The staff was incredible!  Really friendly and really helpful, they directed me to several excellent restaurants in the area and even printed maps for me.  The head manager was extremely nice.It's in a great location too - right in The Woodlands.  One minute from the mall, market street, and great restaurants.More</t>
   </si>
   <si>
@@ -1138,6 +1724,39 @@
   </si>
   <si>
     <t>The hotel staff is well-meaning and friendly. Room houskeeping is very good.Poor room lighting, mildew smells from the antiquated A/C units which are equally noisy,  patchwork repairs on hotel room fixtures make everything look worse;  dingy/gray towels and especially the sheets; dated and dented furniture, but new carpet in some rooms-although trim work not completed in 2 rooms (2-3rd floors). Parking lot and surrounding areas not well-maintained; Food is questionable; lots of highway noise. They either need to spend a lot of money and properly update this hotel or close it down because it is in need of an overhaul.High speed access and frig in rooms - nice features.Great staff! Management is fortunate to have them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r10032672-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>10032672</t>
+  </si>
+  <si>
+    <t>10/02/2007</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay at The Comfort Suites. The hotel staff was A++++++. The hotel is currently being remodeled (I read the previous comment) We enjoyed the FULL Breakfast the most! Also we stayed on a Tuesday and they had a small reception in the lobby which included food and drinks at no additional cost to us. I will stay here again on my next visit and I am sure the remodeling will be completed.I didnt use the workout room but enjoyed the pool.</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d106378-r6027509-Clarion_Suites_Near_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>6027509</t>
+  </si>
+  <si>
+    <t>10/28/2006</t>
+  </si>
+  <si>
+    <t>Comfort Suities is just Ok.</t>
+  </si>
+  <si>
+    <t>The Comfort Inn near the Woodlands is a nice hotel.  Although I remember when the hotel was built almost 6 year ago, my most recent visit shows it's quickly becoming dated.  A modest renovation can bring this hotel up to 2006 standards.  Don't be fooled by the exercise room...it just contains 2 cardo machines....no free weights or weight machines.</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +2291,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1680,12 +2299,16 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1729,7 +2352,7 @@
         <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -1738,17 +2361,11 @@
         <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1792,13 +2409,13 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1849,25 +2466,25 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
       <c r="R5" t="n">
         <v>3</v>
       </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1891,34 +2508,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1932,7 +2549,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1975,21 +2592,27 @@
         <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2005,48 +2628,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="P8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -2083,25 +2710,25 @@
         <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
         <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2109,7 +2736,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -2125,52 +2752,48 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>104</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>105</v>
       </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -2186,54 +2809,48 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>109</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>110</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>111</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>112</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>99</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2249,7 +2866,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2258,34 +2875,38 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
       </c>
-      <c r="P12" t="s"/>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>4</v>
@@ -2293,14 +2914,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
         <v>118</v>
-      </c>
-      <c r="X12" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2316,44 +2933,44 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
       <c r="O13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2361,7 +2978,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2377,62 +2994,48 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
         <v>128</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>129</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>130</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="L14" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>133</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>134</v>
-      </c>
-      <c r="X14" t="s">
-        <v>135</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2448,50 +3051,46 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>137</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>142</v>
-      </c>
       <c r="O15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" t="n">
+        <v>112</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
         <v>3</v>
       </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
       <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2499,7 +3098,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2515,47 +3114,41 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
         <v>143</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>144</v>
       </c>
-      <c r="J16" t="s">
+      <c r="O16" t="s">
         <v>145</v>
       </c>
-      <c r="K16" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" t="s">
-        <v>147</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>148</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2566,7 +3159,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
@@ -2582,50 +3175,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
         <v>149</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>150</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>151</v>
-      </c>
-      <c r="K17" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>154</v>
       </c>
       <c r="O17" t="s">
         <v>60</v>
       </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2633,7 +3222,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2649,37 +3238,37 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
         <v>156</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>157</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>158</v>
       </c>
-      <c r="K18" t="s">
-        <v>159</v>
-      </c>
-      <c r="L18" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="O18" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
         <v>5</v>
       </c>
@@ -2696,7 +3285,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
@@ -2712,31 +3301,31 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
         <v>161</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>162</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>163</v>
       </c>
-      <c r="K19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" t="s">
-        <v>165</v>
-      </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="O19" t="s">
         <v>60</v>
@@ -2744,12 +3333,8 @@
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
         <v>5</v>
       </c>
@@ -2763,7 +3348,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -2779,7 +3364,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2788,26 +3373,16 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" t="s">
-        <v>170</v>
-      </c>
-      <c r="L20" t="s">
-        <v>171</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>172</v>
-      </c>
-      <c r="O20" t="s">
-        <v>53</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -2817,15 +3392,9 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>173</v>
-      </c>
-      <c r="X20" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>175</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2840,7 +3409,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2849,53 +3418,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>182</v>
-      </c>
-      <c r="X21" t="s">
-        <v>183</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
@@ -2911,7 +3470,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2920,51 +3479,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="X22" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -2980,7 +3531,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2989,35 +3540,33 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="N23" t="s">
-        <v>181</v>
-      </c>
-      <c r="O23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -3027,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="X23" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -3049,7 +3598,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3058,53 +3607,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>196</v>
       </c>
-      <c r="K24" t="s">
-        <v>204</v>
-      </c>
-      <c r="L24" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>206</v>
-      </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>197</v>
+      </c>
+      <c r="X24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y24" t="s">
         <v>199</v>
-      </c>
-      <c r="X24" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -3120,7 +3669,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3129,53 +3678,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>213</v>
-      </c>
-      <c r="X25" t="s">
-        <v>214</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
@@ -3191,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3200,53 +3745,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
         <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>222</v>
-      </c>
-      <c r="X26" t="s">
-        <v>223</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -3262,7 +3803,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3271,49 +3812,53 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>218</v>
+      </c>
+      <c r="X27" t="s">
+        <v>219</v>
+      </c>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
@@ -3329,7 +3874,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3338,37 +3883,37 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3377,10 +3922,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>218</v>
+      </c>
+      <c r="X28" t="s">
+        <v>219</v>
+      </c>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
@@ -3396,7 +3945,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3405,25 +3954,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3431,7 +3980,9 @@
       <c r="Q29" t="n">
         <v>1</v>
       </c>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
       <c r="S29" t="n">
         <v>2</v>
       </c>
@@ -3445,7 +3996,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
@@ -3461,7 +4012,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3470,41 +4021,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s">
-        <v>250</v>
-      </c>
-      <c r="O30" t="s">
-        <v>66</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3512,7 +4059,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
@@ -3528,7 +4075,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3537,41 +4084,41 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3579,7 +4126,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
@@ -3595,7 +4142,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3604,49 +4151,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>251</v>
+      </c>
+      <c r="X32" t="s">
+        <v>252</v>
+      </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
@@ -3662,7 +4203,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3671,22 +4212,26 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="N33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O33" t="s">
+        <v>145</v>
+      </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
@@ -3706,10 +4251,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>251</v>
+      </c>
+      <c r="X33" t="s">
+        <v>252</v>
+      </c>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34">
@@ -3725,7 +4274,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3734,49 +4283,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>266</v>
+      </c>
+      <c r="X34" t="s">
+        <v>267</v>
+      </c>
       <c r="Y34" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
@@ -3792,7 +4335,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3801,53 +4344,53 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J35" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="X35" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Y35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
@@ -3863,7 +4406,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3872,39 +4415,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
         <v>4</v>
       </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3916,7 +4459,7 @@
         <v>284</v>
       </c>
       <c r="Y36" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
@@ -3932,7 +4475,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3941,31 +4484,35 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J37" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
       <c r="S37" t="n">
         <v>5</v>
       </c>
@@ -3977,13 +4524,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="X37" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Y37" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
@@ -3999,7 +4546,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4008,47 +4555,53 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
         <v>2</v>
       </c>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="X38" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="Y38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
@@ -4064,40 +4617,38 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" t="s">
+        <v>306</v>
+      </c>
+      <c r="L39" t="s">
         <v>307</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J39" t="s">
-        <v>309</v>
-      </c>
-      <c r="K39" t="s">
-        <v>310</v>
-      </c>
-      <c r="L39" t="s">
-        <v>311</v>
-      </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
         <v>4</v>
@@ -4113,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="X39" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40">
@@ -4135,54 +4686,62 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>305</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
         <v>314</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
-        <v>315</v>
-      </c>
-      <c r="J40" t="s">
-        <v>316</v>
-      </c>
-      <c r="K40" t="s">
-        <v>317</v>
-      </c>
-      <c r="L40" t="s">
-        <v>318</v>
-      </c>
       <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>291</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>308</v>
+      </c>
+      <c r="X40" t="s">
+        <v>309</v>
+      </c>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41">
@@ -4198,54 +4757,62 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>316</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>318</v>
+      </c>
+      <c r="K41" t="s">
         <v>319</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>320</v>
       </c>
-      <c r="J41" t="s">
-        <v>321</v>
-      </c>
-      <c r="K41" t="s">
-        <v>322</v>
-      </c>
-      <c r="L41" t="s">
-        <v>323</v>
-      </c>
       <c r="M41" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>321</v>
+      </c>
+      <c r="X41" t="s">
+        <v>322</v>
+      </c>
       <c r="Y41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
@@ -4261,58 +4828,62 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
         <v>325</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>326</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>327</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>328</v>
       </c>
-      <c r="L42" t="s">
-        <v>329</v>
-      </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>321</v>
+      </c>
+      <c r="X42" t="s">
+        <v>322</v>
+      </c>
       <c r="Y42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43">
@@ -4328,58 +4899,54 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J43" t="s">
         <v>332</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>333</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>334</v>
       </c>
-      <c r="K43" t="s">
-        <v>335</v>
-      </c>
-      <c r="L43" t="s">
-        <v>336</v>
-      </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>335</v>
+      </c>
+      <c r="X43" t="s">
+        <v>336</v>
+      </c>
       <c r="Y43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
@@ -4395,58 +4962,62 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>338</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
         <v>339</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>340</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>341</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>342</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
         <v>343</v>
       </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>344</v>
-      </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>344</v>
+      </c>
+      <c r="X44" t="s">
+        <v>345</v>
+      </c>
       <c r="Y44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
@@ -4462,7 +5033,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4471,43 +5042,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
+        <v>352</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
         <v>351</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
-      <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s">
-        <v>352</v>
-      </c>
-      <c r="X45" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="46">
@@ -4523,62 +5100,2180 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>353</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>354</v>
+      </c>
+      <c r="J46" t="s">
         <v>355</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>356</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>357</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>358</v>
       </c>
-      <c r="L46" t="s">
-        <v>359</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="s">
-        <v>360</v>
-      </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>360</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>361</v>
+      </c>
+      <c r="J47" t="s">
+        <v>362</v>
+      </c>
+      <c r="K47" t="s">
+        <v>363</v>
+      </c>
+      <c r="L47" t="s">
+        <v>364</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>365</v>
+      </c>
+      <c r="O47" t="s">
+        <v>145</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>366</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>367</v>
+      </c>
+      <c r="J48" t="s">
+        <v>368</v>
+      </c>
+      <c r="K48" t="s">
+        <v>369</v>
+      </c>
+      <c r="L48" t="s">
+        <v>370</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>371</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>373</v>
+      </c>
+      <c r="J49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" t="s">
+        <v>112</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>379</v>
+      </c>
+      <c r="J50" t="s">
+        <v>380</v>
+      </c>
+      <c r="K50" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" t="s">
+        <v>382</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>383</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
         <v>3</v>
       </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="s">
-        <v>361</v>
-      </c>
-      <c r="X46" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>363</v>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>385</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>386</v>
+      </c>
+      <c r="J51" t="s">
+        <v>387</v>
+      </c>
+      <c r="K51" t="s">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s">
+        <v>389</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>390</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>391</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>392</v>
+      </c>
+      <c r="J52" t="s">
+        <v>393</v>
+      </c>
+      <c r="K52" t="s">
+        <v>394</v>
+      </c>
+      <c r="L52" t="s">
+        <v>395</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s">
+        <v>400</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>401</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>403</v>
+      </c>
+      <c r="J54" t="s">
+        <v>404</v>
+      </c>
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" t="s">
+        <v>406</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>407</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>409</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>410</v>
+      </c>
+      <c r="J55" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" t="s">
+        <v>412</v>
+      </c>
+      <c r="L55" t="s">
+        <v>413</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>414</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>415</v>
+      </c>
+      <c r="J56" t="s">
+        <v>416</v>
+      </c>
+      <c r="K56" t="s">
+        <v>417</v>
+      </c>
+      <c r="L56" t="s">
+        <v>418</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>419</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>421</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>422</v>
+      </c>
+      <c r="J57" t="s">
+        <v>423</v>
+      </c>
+      <c r="K57" t="s">
+        <v>424</v>
+      </c>
+      <c r="L57" t="s">
+        <v>425</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>419</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>426</v>
+      </c>
+      <c r="X57" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>429</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>430</v>
+      </c>
+      <c r="J58" t="s">
+        <v>431</v>
+      </c>
+      <c r="K58" t="s">
+        <v>432</v>
+      </c>
+      <c r="L58" t="s">
+        <v>433</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>419</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>434</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>435</v>
+      </c>
+      <c r="J59" t="s">
+        <v>436</v>
+      </c>
+      <c r="K59" t="s">
+        <v>437</v>
+      </c>
+      <c r="L59" t="s">
+        <v>438</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>439</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>426</v>
+      </c>
+      <c r="X59" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>442</v>
+      </c>
+      <c r="J60" t="s">
+        <v>443</v>
+      </c>
+      <c r="K60" t="s">
+        <v>444</v>
+      </c>
+      <c r="L60" t="s">
+        <v>445</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>446</v>
+      </c>
+      <c r="O60" t="s">
+        <v>145</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>426</v>
+      </c>
+      <c r="X60" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>448</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>449</v>
+      </c>
+      <c r="J61" t="s">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s">
+        <v>451</v>
+      </c>
+      <c r="L61" t="s">
+        <v>452</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>426</v>
+      </c>
+      <c r="X61" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>455</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>456</v>
+      </c>
+      <c r="J62" t="s">
+        <v>457</v>
+      </c>
+      <c r="K62" t="s">
+        <v>458</v>
+      </c>
+      <c r="L62" t="s">
+        <v>459</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>453</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>426</v>
+      </c>
+      <c r="X62" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>461</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>462</v>
+      </c>
+      <c r="J63" t="s">
+        <v>463</v>
+      </c>
+      <c r="K63" t="s">
+        <v>464</v>
+      </c>
+      <c r="L63" t="s">
+        <v>465</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>453</v>
+      </c>
+      <c r="O63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>426</v>
+      </c>
+      <c r="X63" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>467</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>468</v>
+      </c>
+      <c r="J64" t="s">
+        <v>469</v>
+      </c>
+      <c r="K64" t="s">
+        <v>470</v>
+      </c>
+      <c r="L64" t="s">
+        <v>471</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>472</v>
+      </c>
+      <c r="O64" t="s">
+        <v>112</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>426</v>
+      </c>
+      <c r="X64" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>474</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>475</v>
+      </c>
+      <c r="J65" t="s">
+        <v>476</v>
+      </c>
+      <c r="K65" t="s">
+        <v>477</v>
+      </c>
+      <c r="L65" t="s">
+        <v>478</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>479</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>426</v>
+      </c>
+      <c r="X65" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>481</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>482</v>
+      </c>
+      <c r="J66" t="s">
+        <v>483</v>
+      </c>
+      <c r="K66" t="s">
+        <v>484</v>
+      </c>
+      <c r="L66" t="s">
+        <v>485</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>486</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>487</v>
+      </c>
+      <c r="J67" t="s">
+        <v>483</v>
+      </c>
+      <c r="K67" t="s">
+        <v>488</v>
+      </c>
+      <c r="L67" t="s">
+        <v>489</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>490</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>491</v>
+      </c>
+      <c r="J68" t="s">
+        <v>492</v>
+      </c>
+      <c r="K68" t="s">
+        <v>493</v>
+      </c>
+      <c r="L68" t="s">
+        <v>494</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>495</v>
+      </c>
+      <c r="O68" t="s">
+        <v>112</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>426</v>
+      </c>
+      <c r="X68" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>497</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>498</v>
+      </c>
+      <c r="J69" t="s">
+        <v>499</v>
+      </c>
+      <c r="K69" t="s">
+        <v>500</v>
+      </c>
+      <c r="L69" t="s">
+        <v>501</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>503</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>504</v>
+      </c>
+      <c r="J70" t="s">
+        <v>505</v>
+      </c>
+      <c r="K70" t="s">
+        <v>506</v>
+      </c>
+      <c r="L70" t="s">
+        <v>507</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>508</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>510</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>511</v>
+      </c>
+      <c r="J71" t="s">
+        <v>512</v>
+      </c>
+      <c r="K71" t="s">
+        <v>513</v>
+      </c>
+      <c r="L71" t="s">
+        <v>514</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>515</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>517</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>518</v>
+      </c>
+      <c r="J72" t="s">
+        <v>519</v>
+      </c>
+      <c r="K72" t="s">
+        <v>520</v>
+      </c>
+      <c r="L72" t="s">
+        <v>521</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>508</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>523</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>524</v>
+      </c>
+      <c r="J73" t="s">
+        <v>525</v>
+      </c>
+      <c r="K73" t="s">
+        <v>526</v>
+      </c>
+      <c r="L73" t="s">
+        <v>527</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>528</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>530</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>531</v>
+      </c>
+      <c r="J74" t="s">
+        <v>532</v>
+      </c>
+      <c r="K74" t="s">
+        <v>533</v>
+      </c>
+      <c r="L74" t="s">
+        <v>534</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>528</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>536</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>537</v>
+      </c>
+      <c r="J75" t="s">
+        <v>538</v>
+      </c>
+      <c r="K75" t="s">
+        <v>539</v>
+      </c>
+      <c r="L75" t="s">
+        <v>540</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>541</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>542</v>
+      </c>
+      <c r="X75" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>545</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>546</v>
+      </c>
+      <c r="J76" t="s">
+        <v>547</v>
+      </c>
+      <c r="K76" t="s">
+        <v>548</v>
+      </c>
+      <c r="L76" t="s">
+        <v>549</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>550</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>551</v>
+      </c>
+      <c r="X76" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>554</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>555</v>
+      </c>
+      <c r="J77" t="s">
+        <v>556</v>
+      </c>
+      <c r="K77" t="s">
+        <v>557</v>
+      </c>
+      <c r="L77" t="s">
+        <v>558</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>559</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37232</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>560</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>561</v>
+      </c>
+      <c r="J78" t="s">
+        <v>562</v>
+      </c>
+      <c r="K78" t="s">
+        <v>563</v>
+      </c>
+      <c r="L78" t="s">
+        <v>564</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
